--- a/MubeaArticles.xlsx
+++ b/MubeaArticles.xlsx
@@ -14,1176 +14,1358 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="386">
-  <si>
-    <t>LL6UZ</t>
-  </si>
-  <si>
-    <t>HB20</t>
-  </si>
-  <si>
-    <t>HWMX2</t>
-  </si>
-  <si>
-    <t>WVCV1X10</t>
-  </si>
-  <si>
-    <t>WVCRE1/84</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="444">
+  <si>
+    <t>XPP0024L-A</t>
+  </si>
+  <si>
+    <t>NT20</t>
+  </si>
+  <si>
+    <t>HW3/8</t>
+  </si>
+  <si>
+    <t>WTR18</t>
+  </si>
+  <si>
+    <t>NRS24</t>
+  </si>
+  <si>
+    <t>BSPM1</t>
+  </si>
+  <si>
+    <t>HKWT1</t>
+  </si>
+  <si>
+    <t>LD1/4S</t>
+  </si>
+  <si>
+    <t>HKT1/2</t>
+  </si>
+  <si>
+    <t>HFD336</t>
+  </si>
+  <si>
+    <t>EZM63S</t>
+  </si>
+  <si>
+    <t>LESMX8</t>
+  </si>
+  <si>
+    <t>HDSX22</t>
+  </si>
+  <si>
+    <t>EVTX6R</t>
+  </si>
+  <si>
+    <t>NFB1089</t>
+  </si>
+  <si>
+    <t>RJD2525</t>
+  </si>
+  <si>
+    <t>RJK3845</t>
+  </si>
+  <si>
+    <t>TGR453B</t>
+  </si>
+  <si>
+    <t>TGR553B</t>
+  </si>
+  <si>
+    <t>WVPAS32</t>
+  </si>
+  <si>
+    <t>LESMX15</t>
+  </si>
+  <si>
+    <t>LESMX19</t>
+  </si>
+  <si>
+    <t>ESMX21T</t>
+  </si>
+  <si>
+    <t>WDBASM30</t>
+  </si>
+  <si>
+    <t>WDBASM16</t>
+  </si>
+  <si>
+    <t>WDBASM36</t>
+  </si>
+  <si>
+    <t>EPLC8DIS</t>
+  </si>
+  <si>
+    <t>EPLC8DOS</t>
+  </si>
+  <si>
+    <t>ERLK3C4S</t>
+  </si>
+  <si>
+    <t>ELBPLEDS</t>
+  </si>
+  <si>
+    <t>ELBX2LED</t>
+  </si>
+  <si>
+    <t>XPP0347-A</t>
+  </si>
+  <si>
+    <t>XPP0289-A</t>
+  </si>
+  <si>
+    <t>XPK1566-A</t>
+  </si>
+  <si>
+    <t>XPM1041-A</t>
+  </si>
+  <si>
+    <t>XPM1039-A</t>
+  </si>
+  <si>
+    <t>XPK2683-A</t>
+  </si>
+  <si>
+    <t>XPK2125-A</t>
+  </si>
+  <si>
+    <t>XPK2437-A</t>
+  </si>
+  <si>
+    <t>XPK2438-A</t>
+  </si>
+  <si>
+    <t>XPB3249-A</t>
+  </si>
+  <si>
+    <t>TTL3500X1</t>
+  </si>
+  <si>
+    <t>LSNR27V10</t>
+  </si>
+  <si>
+    <t>XPM1102L-A</t>
+  </si>
+  <si>
+    <t>TTL31000X1</t>
+  </si>
+  <si>
+    <t>TTL51000X3</t>
+  </si>
+  <si>
+    <t>EBSM8CM12C</t>
+  </si>
+  <si>
+    <t>LVE32VTSA02</t>
+  </si>
+  <si>
+    <t>LVE52VTSA02</t>
+  </si>
+  <si>
+    <t>LFDRO1/2F1C</t>
+  </si>
+  <si>
+    <t>LFDRO1/2F5C</t>
+  </si>
+  <si>
+    <t>ERLS2P24DCS</t>
+  </si>
+  <si>
+    <t>LFDRO1/2F0.01C</t>
+  </si>
+  <si>
+    <t>EM57.1HSKA63AC7</t>
+  </si>
+  <si>
+    <t>BHHHSKA63D20L90</t>
+  </si>
+  <si>
+    <t>BSHHSKA63D27L100</t>
+  </si>
+  <si>
+    <t>R220.97-0063-V22.4A</t>
+  </si>
+  <si>
+    <t>VPGX220605ER-E10-H25</t>
+  </si>
+  <si>
+    <t>522200R050Z2.0-MEGA-64</t>
+  </si>
+  <si>
+    <t>JS453200E2R050.0Z3-HEMI</t>
+  </si>
+  <si>
+    <t>71902E</t>
+  </si>
+  <si>
+    <t>XPB1661-A</t>
+  </si>
+  <si>
+    <t>XPK1906-A</t>
+  </si>
+  <si>
+    <t>XPM1321-A</t>
+  </si>
+  <si>
+    <t>TB30</t>
+  </si>
+  <si>
+    <t>WTR3</t>
+  </si>
+  <si>
+    <t>TB25</t>
+  </si>
+  <si>
+    <t>RN1/8</t>
+  </si>
+  <si>
+    <t>RT1/4</t>
+  </si>
+  <si>
+    <t>NCU10</t>
+  </si>
+  <si>
+    <t>WTR21</t>
+  </si>
+  <si>
+    <t>WTR28</t>
+  </si>
+  <si>
+    <t>WTR35</t>
+  </si>
+  <si>
+    <t>WTR36</t>
+  </si>
+  <si>
+    <t>WTR39</t>
+  </si>
+  <si>
+    <t>LKT44</t>
+  </si>
+  <si>
+    <t>WTR68</t>
+  </si>
+  <si>
+    <t>IFP70</t>
+  </si>
+  <si>
+    <t>TMP71</t>
+  </si>
+  <si>
+    <t>IFPC1</t>
+  </si>
+  <si>
+    <t>IFPC3</t>
+  </si>
+  <si>
+    <t>IFPC4</t>
+  </si>
+  <si>
+    <t>IFPC5</t>
+  </si>
+  <si>
+    <t>IFPC6</t>
+  </si>
+  <si>
+    <t>IFPC7</t>
+  </si>
+  <si>
+    <t>IFPC8</t>
+  </si>
+  <si>
+    <t>IFPC9</t>
+  </si>
+  <si>
+    <t>WVCL3</t>
+  </si>
+  <si>
+    <t>WVCL8</t>
+  </si>
+  <si>
+    <t>NM40X1</t>
+  </si>
+  <si>
+    <t>NM50X1</t>
+  </si>
+  <si>
+    <t>LW21/2</t>
+  </si>
+  <si>
+    <t>NSC1/2</t>
+  </si>
+  <si>
+    <t>NSC1/4</t>
+  </si>
+  <si>
+    <t>NSC1/8</t>
+  </si>
+  <si>
+    <t>LRD1/4</t>
+  </si>
+  <si>
+    <t>LRD1/8</t>
+  </si>
+  <si>
+    <t>LRE1/2</t>
+  </si>
+  <si>
+    <t>NSM1/4</t>
+  </si>
+  <si>
+    <t>DDR102</t>
+  </si>
+  <si>
+    <t>TMP252</t>
+  </si>
+  <si>
+    <t>LL13EP</t>
+  </si>
+  <si>
+    <t>IHV428</t>
+  </si>
+  <si>
+    <t>NM25X1</t>
+  </si>
+  <si>
+    <t>NAS550</t>
+  </si>
+  <si>
+    <t>NQB620</t>
+  </si>
+  <si>
+    <t>NHC615</t>
+  </si>
+  <si>
+    <t>NSM690</t>
+  </si>
+  <si>
+    <t>DOR603</t>
+  </si>
+  <si>
+    <t>NFB891</t>
+  </si>
+  <si>
+    <t>NKN840</t>
+  </si>
+  <si>
+    <t>NKN880</t>
+  </si>
+  <si>
+    <t>NTN8X2</t>
+  </si>
+  <si>
+    <t>NSP820</t>
+  </si>
+  <si>
+    <t>NSP830</t>
+  </si>
+  <si>
+    <t>NSP850</t>
+  </si>
+  <si>
+    <t>NSP825</t>
+  </si>
+  <si>
+    <t>NSP835</t>
+  </si>
+  <si>
+    <t>IFPC10</t>
+  </si>
+  <si>
+    <t>IFPC20</t>
+  </si>
+  <si>
+    <t>IFPC30</t>
+  </si>
+  <si>
+    <t>IFPC11</t>
+  </si>
+  <si>
+    <t>IFPC12</t>
+  </si>
+  <si>
+    <t>IFPC32</t>
+  </si>
+  <si>
+    <t>IFPC13</t>
+  </si>
+  <si>
+    <t>IFPC23</t>
+  </si>
+  <si>
+    <t>IFPC33</t>
+  </si>
+  <si>
+    <t>IFPC14</t>
+  </si>
+  <si>
+    <t>IFPC24</t>
+  </si>
+  <si>
+    <t>IFPC34</t>
+  </si>
+  <si>
+    <t>IFPC15</t>
+  </si>
+  <si>
+    <t>IFPC25</t>
+  </si>
+  <si>
+    <t>IFPC35</t>
+  </si>
+  <si>
+    <t>IFPC16</t>
+  </si>
+  <si>
+    <t>IFPC26</t>
+  </si>
+  <si>
+    <t>IFPC36</t>
+  </si>
+  <si>
+    <t>IFPC17</t>
+  </si>
+  <si>
+    <t>IFPC27</t>
+  </si>
+  <si>
+    <t>IFPC18</t>
+  </si>
+  <si>
+    <t>IFPC28</t>
+  </si>
+  <si>
+    <t>IFPC19</t>
+  </si>
+  <si>
+    <t>TLLD12</t>
+  </si>
+  <si>
+    <t>WVCPP2</t>
+  </si>
+  <si>
+    <t>WVCPP7</t>
+  </si>
+  <si>
+    <t>DORR20</t>
+  </si>
+  <si>
+    <t>WVCSR1</t>
   </si>
   <si>
     <t>WVCSR4</t>
   </si>
   <si>
+    <t>WVETP6</t>
+  </si>
+  <si>
+    <t>LKWTM3</t>
+  </si>
+  <si>
+    <t>NPLUG6</t>
+  </si>
+  <si>
+    <t>DORV62</t>
+  </si>
+  <si>
+    <t>NM20SKF</t>
+  </si>
+  <si>
+    <t>NPC1040</t>
+  </si>
+  <si>
+    <t>TKL1423</t>
+  </si>
+  <si>
+    <t>TKL1826</t>
+  </si>
+  <si>
+    <t>NSP1070</t>
+  </si>
+  <si>
+    <t>TR720X2</t>
+  </si>
+  <si>
+    <t>VSG2228</t>
+  </si>
+  <si>
+    <t>TVL2428</t>
+  </si>
+  <si>
+    <t>TGR256B</t>
+  </si>
+  <si>
+    <t>VST2087</t>
+  </si>
+  <si>
+    <t>EM.3B51</t>
+  </si>
+  <si>
+    <t>TW63904</t>
+  </si>
+  <si>
+    <t>VSD3448</t>
+  </si>
+  <si>
+    <t>DOK3042</t>
+  </si>
+  <si>
+    <t>TKL3243</t>
+  </si>
+  <si>
+    <t>TGR306B</t>
+  </si>
+  <si>
+    <t>LVB41/8</t>
+  </si>
+  <si>
+    <t>IMG6063</t>
+  </si>
+  <si>
+    <t>DOK6080</t>
+  </si>
+  <si>
+    <t>TLK7210</t>
+  </si>
+  <si>
+    <t>VM18352</t>
+  </si>
+  <si>
+    <t>NKN8603</t>
+  </si>
+  <si>
+    <t>WVPAS35</t>
+  </si>
+  <si>
+    <t>NPCD620</t>
+  </si>
+  <si>
+    <t>NPCD820</t>
+  </si>
+  <si>
+    <t>NPCD830</t>
+  </si>
+  <si>
+    <t>NPCD640</t>
+  </si>
+  <si>
+    <t>NPCD840</t>
+  </si>
+  <si>
+    <t>NPCD850</t>
+  </si>
+  <si>
+    <t>NPCD870</t>
+  </si>
+  <si>
+    <t>NPCD624</t>
+  </si>
+  <si>
+    <t>IFPH120</t>
+  </si>
+  <si>
+    <t>IFPH130</t>
+  </si>
+  <si>
+    <t>IFPH121</t>
+  </si>
+  <si>
+    <t>IFPH131</t>
+  </si>
+  <si>
+    <t>IFPH132</t>
+  </si>
+  <si>
+    <t>IFPH133</t>
+  </si>
+  <si>
+    <t>IFPH124</t>
+  </si>
+  <si>
+    <t>IFPH125</t>
+  </si>
+  <si>
+    <t>IFPH117</t>
+  </si>
+  <si>
+    <t>IFPH127</t>
+  </si>
+  <si>
+    <t>IFPH118</t>
+  </si>
+  <si>
+    <t>IFPH119</t>
+  </si>
+  <si>
+    <t>IFPH129</t>
+  </si>
+  <si>
+    <t>LESMXN4</t>
+  </si>
+  <si>
+    <t>LESMXN8</t>
+  </si>
+  <si>
+    <t>IKSM616</t>
+  </si>
+  <si>
+    <t>WVCRE64</t>
+  </si>
+  <si>
+    <t>WVCRR64</t>
+  </si>
+  <si>
+    <t>DORRA15</t>
+  </si>
+  <si>
+    <t>TLASK10</t>
+  </si>
+  <si>
+    <t>TLASS10</t>
+  </si>
+  <si>
+    <t>TLASK30</t>
+  </si>
+  <si>
     <t>TLASS30</t>
   </si>
   <si>
-    <t>LRR1/210P</t>
-  </si>
-  <si>
-    <t>HDSX12</t>
+    <t>TLASK15</t>
+  </si>
+  <si>
+    <t>WVCSRA1</t>
+  </si>
+  <si>
+    <t>WVCSRA4</t>
+  </si>
+  <si>
+    <t>EKKT200</t>
+  </si>
+  <si>
+    <t>WVCV1X3</t>
+  </si>
+  <si>
+    <t>WVCV1X5</t>
+  </si>
+  <si>
+    <t>WVCV1X6</t>
+  </si>
+  <si>
+    <t>WVCV1X7</t>
+  </si>
+  <si>
+    <t>NFB16170</t>
+  </si>
+  <si>
+    <t>NFB12145</t>
+  </si>
+  <si>
+    <t>LRB1/84P</t>
+  </si>
+  <si>
+    <t>IHK100X1</t>
+  </si>
+  <si>
+    <t>LRK1/84P</t>
+  </si>
+  <si>
+    <t>LRK1/86P</t>
+  </si>
+  <si>
+    <t>ECP1FSCS</t>
+  </si>
+  <si>
+    <t>LRR1/86P</t>
+  </si>
+  <si>
+    <t>IHV105X2</t>
+  </si>
+  <si>
+    <t>TLL3040G</t>
+  </si>
+  <si>
+    <t>WLADDER8</t>
+  </si>
+  <si>
+    <t>WVCD10X1</t>
+  </si>
+  <si>
+    <t>WVCD30X1</t>
+  </si>
+  <si>
+    <t>HSKL1219</t>
+  </si>
+  <si>
+    <t>LRKM54PX</t>
+  </si>
+  <si>
+    <t>WPROFX42</t>
+  </si>
+  <si>
+    <t>WPROFX23</t>
+  </si>
+  <si>
+    <t>WPROFX43</t>
+  </si>
+  <si>
+    <t>WPROFX93</t>
+  </si>
+  <si>
+    <t>WPROFX29</t>
+  </si>
+  <si>
+    <t>WVCRR104</t>
+  </si>
+  <si>
+    <t>WVCRE108</t>
+  </si>
+  <si>
+    <t>WVCRR108</t>
+  </si>
+  <si>
+    <t>TGRRW353</t>
+  </si>
+  <si>
+    <t>WVCTANK3</t>
+  </si>
+  <si>
+    <t>TW506.751</t>
+  </si>
+  <si>
+    <t>XPB0715-A</t>
+  </si>
+  <si>
+    <t>XPB0056-A</t>
+  </si>
+  <si>
+    <t>XPE0282-A</t>
+  </si>
+  <si>
+    <t>XPE0094-A</t>
+  </si>
+  <si>
+    <t>SDK0122-A</t>
+  </si>
+  <si>
+    <t>XPK0042-A</t>
+  </si>
+  <si>
+    <t>XPK0023-A</t>
+  </si>
+  <si>
+    <t>XPK0005-A</t>
+  </si>
+  <si>
+    <t>XPK0668-A</t>
+  </si>
+  <si>
+    <t>XPM0150-A</t>
+  </si>
+  <si>
+    <t>XPM0641-A</t>
+  </si>
+  <si>
+    <t>XPM0061-A</t>
+  </si>
+  <si>
+    <t>XPM0642-A</t>
+  </si>
+  <si>
+    <t>XPM0145-A</t>
+  </si>
+  <si>
+    <t>XPM0116-A</t>
+  </si>
+  <si>
+    <t>XPM0577-A</t>
+  </si>
+  <si>
+    <t>XPM0568-A</t>
+  </si>
+  <si>
+    <t>XPM0629-A</t>
+  </si>
+  <si>
+    <t>XPM0579-A</t>
+  </si>
+  <si>
+    <t>XPP0001-A</t>
+  </si>
+  <si>
+    <t>XPP0002-A</t>
+  </si>
+  <si>
+    <t>XPP0103-A</t>
+  </si>
+  <si>
+    <t>XPP0233-A</t>
+  </si>
+  <si>
+    <t>XPP0005-A</t>
+  </si>
+  <si>
+    <t>XPP0226-A</t>
+  </si>
+  <si>
+    <t>XPP0096-A</t>
+  </si>
+  <si>
+    <t>XPP0217-A</t>
+  </si>
+  <si>
+    <t>XPP0218-A</t>
+  </si>
+  <si>
+    <t>XPP0219-A</t>
+  </si>
+  <si>
+    <t>XPP0329-A</t>
+  </si>
+  <si>
+    <t>XPS0100-A</t>
+  </si>
+  <si>
+    <t>XPS0151-A</t>
+  </si>
+  <si>
+    <t>XPS0103-A</t>
+  </si>
+  <si>
+    <t>XPS0024-A</t>
+  </si>
+  <si>
+    <t>XPS0154-A</t>
+  </si>
+  <si>
+    <t>XPS0068-A</t>
+  </si>
+  <si>
+    <t>XPT0036-A</t>
+  </si>
+  <si>
+    <t>XPT0196-A</t>
+  </si>
+  <si>
+    <t>XPT0148-A</t>
+  </si>
+  <si>
+    <t>LRA1/41/8</t>
+  </si>
+  <si>
+    <t>NFB161001</t>
+  </si>
+  <si>
+    <t>XPB1730-A</t>
+  </si>
+  <si>
+    <t>XPB1870-A</t>
+  </si>
+  <si>
+    <t>XPB1691-A</t>
+  </si>
+  <si>
+    <t>XPB1942-A</t>
+  </si>
+  <si>
+    <t>XPB1692-A</t>
+  </si>
+  <si>
+    <t>XPB1903-A</t>
+  </si>
+  <si>
+    <t>XPB1793-A</t>
+  </si>
+  <si>
+    <t>XPB1926-A</t>
+  </si>
+  <si>
+    <t>XPB1996-A</t>
+  </si>
+  <si>
+    <t>XPB1807-A</t>
+  </si>
+  <si>
+    <t>XPB1929-A</t>
+  </si>
+  <si>
+    <t>XPB1849-A</t>
+  </si>
+  <si>
+    <t>TLG101210</t>
+  </si>
+  <si>
+    <t>XPK1590-A</t>
+  </si>
+  <si>
+    <t>XPK1431-A</t>
+  </si>
+  <si>
+    <t>XPK1622-A</t>
+  </si>
+  <si>
+    <t>XPK1432-A</t>
+  </si>
+  <si>
+    <t>XPK1433-A</t>
+  </si>
+  <si>
+    <t>XPK1653-A</t>
+  </si>
+  <si>
+    <t>XPK1534-A</t>
+  </si>
+  <si>
+    <t>XPK1595-A</t>
+  </si>
+  <si>
+    <t>XPK1436-A</t>
+  </si>
+  <si>
+    <t>XPK1646-A</t>
+  </si>
+  <si>
+    <t>XPK1437-A</t>
+  </si>
+  <si>
+    <t>XPK1647-A</t>
+  </si>
+  <si>
+    <t>XPK1478-A</t>
+  </si>
+  <si>
+    <t>XPK1599-A</t>
+  </si>
+  <si>
+    <t>LRK1/86PX</t>
+  </si>
+  <si>
+    <t>LRR1/84PX</t>
+  </si>
+  <si>
+    <t>LRR1/86PX</t>
+  </si>
+  <si>
+    <t>LRR1/48PX</t>
+  </si>
+  <si>
+    <t>LRR1/88PX</t>
+  </si>
+  <si>
+    <t>XPT1512-A</t>
+  </si>
+  <si>
+    <t>XPT1252-A</t>
+  </si>
+  <si>
+    <t>XPT1023-A</t>
+  </si>
+  <si>
+    <t>XPT1254-A</t>
+  </si>
+  <si>
+    <t>XPT1417-A</t>
+  </si>
+  <si>
+    <t>XPT1428-A</t>
+  </si>
+  <si>
+    <t>XPB2020-A</t>
+  </si>
+  <si>
+    <t>XPB2082-A</t>
+  </si>
+  <si>
+    <t>XPB2014-A</t>
+  </si>
+  <si>
+    <t>XPB2015-A</t>
+  </si>
+  <si>
+    <t>XPB2995-A</t>
+  </si>
+  <si>
+    <t>XPB2016-A</t>
+  </si>
+  <si>
+    <t>XPK2102-A</t>
+  </si>
+  <si>
+    <t>XPK2942-A</t>
+  </si>
+  <si>
+    <t>XPK2107-A</t>
+  </si>
+  <si>
+    <t>XPK2108-A</t>
+  </si>
+  <si>
+    <t>XPK2088-A</t>
+  </si>
+  <si>
+    <t>XPB3290-A</t>
+  </si>
+  <si>
+    <t>XPB3291-A</t>
+  </si>
+  <si>
+    <t>LVE32VS18</t>
+  </si>
+  <si>
+    <t>TLG303430</t>
+  </si>
+  <si>
+    <t>XPK3172-A</t>
+  </si>
+  <si>
+    <t>TTS3Z35X1</t>
+  </si>
+  <si>
+    <t>TRR502401</t>
+  </si>
+  <si>
+    <t>TLK6004Z1</t>
+  </si>
+  <si>
+    <t>TLK7304X1</t>
+  </si>
+  <si>
+    <t>TRR804020</t>
+  </si>
+  <si>
+    <t>IFPBMUBE1</t>
+  </si>
+  <si>
+    <t>RJRI1/410</t>
+  </si>
+  <si>
+    <t>LRAM161/8</t>
+  </si>
+  <si>
+    <t>LRAM281/2</t>
+  </si>
+  <si>
+    <t>WVCRE1/48</t>
+  </si>
+  <si>
+    <t>WVCRR1/84</t>
+  </si>
+  <si>
+    <t>TGRRW353L</t>
+  </si>
+  <si>
+    <t>TGRW153D6</t>
+  </si>
+  <si>
+    <t>TGRW253D6</t>
+  </si>
+  <si>
+    <t>XPB1812A-A</t>
+  </si>
+  <si>
+    <t>XPB1813A-A</t>
+  </si>
+  <si>
+    <t>XPB1896I-A</t>
+  </si>
+  <si>
+    <t>XPB1863R-A</t>
+  </si>
+  <si>
+    <t>XPB1864R-A</t>
+  </si>
+  <si>
+    <t>XPB1867R-A</t>
+  </si>
+  <si>
+    <t>XPB1868R-A</t>
+  </si>
+  <si>
+    <t>XPK1930I-A</t>
+  </si>
+  <si>
+    <t>XPK1715L-A</t>
+  </si>
+  <si>
+    <t>XPK1716L-A</t>
+  </si>
+  <si>
+    <t>XPB2011L-A</t>
+  </si>
+  <si>
+    <t>XPK2962L-A</t>
+  </si>
+  <si>
+    <t>XPK2666L-A</t>
+  </si>
+  <si>
+    <t>EMKG1600X1</t>
+  </si>
+  <si>
+    <t>LRSP1/213M</t>
+  </si>
+  <si>
+    <t>LRSP1/413M</t>
+  </si>
+  <si>
+    <t>TGRW153D4S</t>
+  </si>
+  <si>
+    <t>BSHHSKF63HSD</t>
+  </si>
+  <si>
+    <t>ES1FT7108-5AC71-1BH0</t>
+  </si>
+  <si>
+    <t>ES1FK7032-2AK71-1RG0</t>
+  </si>
+  <si>
+    <t>ES1FK7060-2AF71-1QH0</t>
+  </si>
+  <si>
+    <t>ES1FK7063-2AF71-1QH0</t>
+  </si>
+  <si>
+    <t>ES1FK7083-2AF71-1BH0</t>
+  </si>
+  <si>
+    <t>ES6FX8002-5CG10-1DG0</t>
+  </si>
+  <si>
+    <t>ES6FX8002-5CA51-1DG0</t>
+  </si>
+  <si>
+    <t>ES6FX8002-5CN05-1AK0</t>
+  </si>
+  <si>
+    <t>ES6FX8002-5CA58-1AK0</t>
+  </si>
+  <si>
+    <t>ES6FX8002-5DG10-1DG0</t>
+  </si>
+  <si>
+    <t>ES6FX8002-5DG10-1DH0</t>
+  </si>
+  <si>
+    <t>ES6FX8002-5DG42-1DJ0</t>
+  </si>
+  <si>
+    <t>EKSIES6FX8008-2DC00</t>
+  </si>
+  <si>
+    <t>XPS0094-A</t>
+  </si>
+  <si>
+    <t>XPB1662-A</t>
+  </si>
+  <si>
+    <t>XPB1663-A</t>
+  </si>
+  <si>
+    <t>XPB1664-A</t>
+  </si>
+  <si>
+    <t>XPB1665-A</t>
+  </si>
+  <si>
+    <t>XPB1795-A</t>
+  </si>
+  <si>
+    <t>XPB1838-A</t>
+  </si>
+  <si>
+    <t>XPK1550-A</t>
+  </si>
+  <si>
+    <t>XPK1535-A</t>
+  </si>
+  <si>
+    <t>XPB2004-A</t>
+  </si>
+  <si>
+    <t>XPB2005-A</t>
+  </si>
+  <si>
+    <t>XPS0080L-A</t>
   </si>
   <si>
     <t>NSM6</t>
   </si>
   <si>
-    <t>NSM690</t>
-  </si>
-  <si>
-    <t>NSK1/2</t>
-  </si>
-  <si>
-    <t>NSK1/4</t>
-  </si>
-  <si>
-    <t>NSK3/8</t>
-  </si>
-  <si>
-    <t>WVCD10X1</t>
-  </si>
-  <si>
-    <t>WVCV1X5</t>
-  </si>
-  <si>
-    <t>IMG6063</t>
-  </si>
-  <si>
-    <t>TLK7207X1</t>
-  </si>
-  <si>
-    <t>TLG303430</t>
-  </si>
-  <si>
-    <t>NM35X1</t>
-  </si>
-  <si>
-    <t>NPCD1260</t>
-  </si>
-  <si>
-    <t>NPCD820</t>
-  </si>
-  <si>
-    <t>NPCD840</t>
-  </si>
-  <si>
-    <t>NSP1050</t>
-  </si>
-  <si>
-    <t>NSP1080</t>
-  </si>
-  <si>
-    <t>LRR1/216P</t>
-  </si>
-  <si>
-    <t>NTN625</t>
-  </si>
-  <si>
-    <t>NT6A</t>
-  </si>
-  <si>
-    <t>NTN1060</t>
-  </si>
-  <si>
-    <t>NR14</t>
-  </si>
-  <si>
-    <t>NT16</t>
-  </si>
-  <si>
-    <t>NM201.5P</t>
-  </si>
-  <si>
-    <t>DDR3/8</t>
-  </si>
-  <si>
-    <t>NSK1</t>
-  </si>
-  <si>
-    <t>DDR2</t>
-  </si>
-  <si>
-    <t>RJR3/816</t>
-  </si>
-  <si>
-    <t>WVCV1X4</t>
-  </si>
-  <si>
-    <t>XPE0123-A</t>
-  </si>
-  <si>
-    <t>XPK1902-A</t>
-  </si>
-  <si>
-    <t>TB20</t>
-  </si>
-  <si>
-    <t>LW21</t>
-  </si>
-  <si>
-    <t>LRE1</t>
-  </si>
-  <si>
-    <t>LRN1</t>
-  </si>
-  <si>
-    <t>DDR1</t>
-  </si>
-  <si>
-    <t>LRT1</t>
-  </si>
-  <si>
-    <t>HB25</t>
-  </si>
-  <si>
-    <t>IAK6</t>
-  </si>
-  <si>
-    <t>TB17</t>
-  </si>
-  <si>
-    <t>NX28</t>
-  </si>
-  <si>
-    <t>RD1/2</t>
-  </si>
-  <si>
-    <t>RT1/4</t>
-  </si>
-  <si>
-    <t>RD3/4</t>
-  </si>
-  <si>
-    <t>RD3/8</t>
-  </si>
-  <si>
-    <t>RJK12</t>
-  </si>
-  <si>
-    <t>IFP11</t>
-  </si>
-  <si>
-    <t>RJT12</t>
-  </si>
-  <si>
-    <t>RJC20</t>
-  </si>
-  <si>
-    <t>RJK25</t>
-  </si>
-  <si>
-    <t>RJM20</t>
-  </si>
-  <si>
-    <t>WTR21</t>
-  </si>
-  <si>
-    <t>WTR28</t>
-  </si>
-  <si>
-    <t>WTR31</t>
-  </si>
-  <si>
-    <t>WTR36</t>
-  </si>
-  <si>
-    <t>WTR39</t>
-  </si>
-  <si>
-    <t>IKS40</t>
-  </si>
-  <si>
-    <t>RJP88</t>
-  </si>
-  <si>
-    <t>IFP95</t>
-  </si>
-  <si>
-    <t>IFPC1</t>
-  </si>
-  <si>
-    <t>IFPC2</t>
-  </si>
-  <si>
-    <t>IFPC3</t>
-  </si>
-  <si>
-    <t>IFPC4</t>
-  </si>
-  <si>
-    <t>IFPC5</t>
-  </si>
-  <si>
-    <t>IFPC6</t>
-  </si>
-  <si>
-    <t>IFPC7</t>
-  </si>
-  <si>
-    <t>IFPC8</t>
-  </si>
-  <si>
-    <t>IFPC9</t>
-  </si>
-  <si>
-    <t>LL6EP</t>
-  </si>
-  <si>
-    <t>WVCL8</t>
+    <t>NCI47</t>
+  </si>
+  <si>
+    <t>DOR41</t>
   </si>
   <si>
     <t>BSPS1</t>
   </si>
   <si>
-    <t>RA5/41</t>
-  </si>
-  <si>
-    <t>IM1050</t>
-  </si>
-  <si>
-    <t>RA11/2</t>
-  </si>
-  <si>
-    <t>RJE125</t>
-  </si>
-  <si>
-    <t>NSM1/4</t>
-  </si>
-  <si>
-    <t>DDR102</t>
-  </si>
-  <si>
-    <t>RJR120</t>
-  </si>
-  <si>
-    <t>RJR125</t>
-  </si>
-  <si>
-    <t>RI128L</t>
-  </si>
-  <si>
-    <t>NM12X1</t>
-  </si>
-  <si>
-    <t>IFP23G</t>
-  </si>
-  <si>
-    <t>LL13EP</t>
-  </si>
-  <si>
-    <t>NSK3/4</t>
-  </si>
-  <si>
-    <t>HKT3/4</t>
-  </si>
-  <si>
-    <t>HKT3/8</t>
-  </si>
-  <si>
-    <t>RA25/4</t>
-  </si>
-  <si>
-    <t>LL25EP</t>
-  </si>
-  <si>
-    <t>NM25X1</t>
-  </si>
-  <si>
-    <t>DDR5/4</t>
-  </si>
-  <si>
-    <t>NKN840</t>
-  </si>
-  <si>
-    <t>NKN880</t>
-  </si>
-  <si>
-    <t>IKV816</t>
-  </si>
-  <si>
-    <t>NMD922</t>
-  </si>
-  <si>
-    <t>IFPC10</t>
-  </si>
-  <si>
-    <t>IFPC20</t>
-  </si>
-  <si>
-    <t>IFPC30</t>
-  </si>
-  <si>
-    <t>IFPC11</t>
-  </si>
-  <si>
-    <t>IFPC21</t>
-  </si>
-  <si>
-    <t>IFPC31</t>
-  </si>
-  <si>
-    <t>IFPC12</t>
-  </si>
-  <si>
-    <t>IFPC22</t>
-  </si>
-  <si>
-    <t>IFPC32</t>
-  </si>
-  <si>
-    <t>IFPC13</t>
-  </si>
-  <si>
-    <t>IFPC23</t>
-  </si>
-  <si>
-    <t>IFPC33</t>
-  </si>
-  <si>
-    <t>IFPC14</t>
-  </si>
-  <si>
-    <t>IFPC24</t>
-  </si>
-  <si>
-    <t>IFPC34</t>
-  </si>
-  <si>
-    <t>IFPC15</t>
-  </si>
-  <si>
-    <t>IFPC25</t>
-  </si>
-  <si>
-    <t>IFPC35</t>
-  </si>
-  <si>
-    <t>IFPC16</t>
-  </si>
-  <si>
-    <t>IFPC26</t>
-  </si>
-  <si>
-    <t>IFPC36</t>
-  </si>
-  <si>
-    <t>IFPC17</t>
-  </si>
-  <si>
-    <t>IFPC27</t>
-  </si>
-  <si>
-    <t>IFPC18</t>
-  </si>
-  <si>
-    <t>IFPC28</t>
-  </si>
-  <si>
-    <t>IFPC19</t>
-  </si>
-  <si>
-    <t>IFPC29</t>
-  </si>
-  <si>
-    <t>RJTH20</t>
-  </si>
-  <si>
-    <t>RJTH12</t>
-  </si>
-  <si>
-    <t>RJTH25</t>
-  </si>
-  <si>
-    <t>LSNORM</t>
-  </si>
-  <si>
-    <t>LSNORV</t>
-  </si>
-  <si>
-    <t>WVCPP2</t>
-  </si>
-  <si>
-    <t>EFLS10</t>
-  </si>
-  <si>
-    <t>WVETP6</t>
-  </si>
-  <si>
-    <t>RJTV20</t>
-  </si>
-  <si>
-    <t>RJTV12</t>
-  </si>
-  <si>
-    <t>HDSX21</t>
-  </si>
-  <si>
-    <t>LRA11/2</t>
-  </si>
-  <si>
-    <t>NFB1089</t>
-  </si>
-  <si>
-    <t>HAC10VB</t>
-  </si>
-  <si>
-    <t>RJK1045</t>
-  </si>
-  <si>
-    <t>TKL1423</t>
-  </si>
-  <si>
-    <t>RJP1212</t>
-  </si>
-  <si>
-    <t>NSP1880</t>
-  </si>
-  <si>
-    <t>RJR1/48</t>
-  </si>
-  <si>
-    <t>RJR1/88</t>
-  </si>
-  <si>
-    <t>XGW1923</t>
-  </si>
-  <si>
-    <t>XGW1924</t>
-  </si>
-  <si>
-    <t>RJA2012</t>
-  </si>
-  <si>
-    <t>RJA2512</t>
-  </si>
-  <si>
-    <t>RJA2016</t>
-  </si>
-  <si>
-    <t>HPG20X1</t>
-  </si>
-  <si>
-    <t>RJP2525</t>
-  </si>
-  <si>
-    <t>VST2087</t>
+    <t>WVETP</t>
+  </si>
+  <si>
+    <t>NM10X1</t>
+  </si>
+  <si>
+    <t>NBC420</t>
+  </si>
+  <si>
+    <t>NSP425</t>
+  </si>
+  <si>
+    <t>NBC524</t>
+  </si>
+  <si>
+    <t>NAB825</t>
+  </si>
+  <si>
+    <t>DORR34</t>
+  </si>
+  <si>
+    <t>WVETPN</t>
+  </si>
+  <si>
+    <t>VSD1337</t>
+  </si>
+  <si>
+    <t>TGR153B</t>
+  </si>
+  <si>
+    <t>VST1651</t>
   </si>
   <si>
     <t>BSU2-14</t>
   </si>
   <si>
-    <t>HAC32X1</t>
-  </si>
-  <si>
-    <t>TVL3232</t>
-  </si>
-  <si>
-    <t>DOK4572</t>
-  </si>
-  <si>
-    <t>DOK4565</t>
-  </si>
-  <si>
-    <t>TGR453B</t>
-  </si>
-  <si>
-    <t>TGR453W</t>
-  </si>
-  <si>
-    <t>VM18352</t>
-  </si>
-  <si>
-    <t>NKN8603</t>
-  </si>
-  <si>
-    <t>NPCD620</t>
-  </si>
-  <si>
-    <t>IFPH120</t>
-  </si>
-  <si>
-    <t>IFPH121</t>
-  </si>
-  <si>
-    <t>IFPH131</t>
-  </si>
-  <si>
-    <t>IFPH132</t>
-  </si>
-  <si>
-    <t>IFPH133</t>
-  </si>
-  <si>
-    <t>IFPH124</t>
-  </si>
-  <si>
-    <t>IFPH125</t>
-  </si>
-  <si>
-    <t>IFPH117</t>
-  </si>
-  <si>
-    <t>IFPH118</t>
-  </si>
-  <si>
-    <t>IFPH119</t>
-  </si>
-  <si>
-    <t>IFPH129</t>
-  </si>
-  <si>
-    <t>RJRI125</t>
-  </si>
-  <si>
-    <t>LRAM421</t>
-  </si>
-  <si>
-    <t>WVCRR64</t>
-  </si>
-  <si>
-    <t>WVCRE84</t>
-  </si>
-  <si>
-    <t>TLASK30</t>
-  </si>
-  <si>
-    <t>WVCSRA1</t>
-  </si>
-  <si>
-    <t>WVCSRA4</t>
-  </si>
-  <si>
-    <t>WVCSRA5</t>
-  </si>
-  <si>
-    <t>WVCSR1L</t>
-  </si>
-  <si>
-    <t>WVCSR5L</t>
-  </si>
-  <si>
-    <t>EKKT150</t>
-  </si>
-  <si>
-    <t>WVCV1X3</t>
-  </si>
-  <si>
-    <t>WVCV1X7</t>
-  </si>
-  <si>
-    <t>RA3/81/2</t>
-  </si>
-  <si>
-    <t>RA3/81/4</t>
-  </si>
-  <si>
-    <t>RI3/422L</t>
-  </si>
-  <si>
-    <t>LW21/2X1</t>
-  </si>
-  <si>
-    <t>NFB12200</t>
-  </si>
-  <si>
-    <t>NFB16170</t>
-  </si>
-  <si>
-    <t>NFB12145</t>
-  </si>
-  <si>
-    <t>RJE1/410</t>
-  </si>
-  <si>
-    <t>RJE1/212</t>
-  </si>
-  <si>
-    <t>NKN10803</t>
-  </si>
-  <si>
-    <t>RJR1/410</t>
-  </si>
-  <si>
-    <t>RJR1/220</t>
-  </si>
-  <si>
-    <t>RJR1/212</t>
-  </si>
-  <si>
-    <t>XGW1915R</t>
-  </si>
-  <si>
-    <t>XGW1916R</t>
-  </si>
-  <si>
-    <t>XGW1917R</t>
-  </si>
-  <si>
-    <t>VM122315</t>
-  </si>
-  <si>
-    <t>HS1230X3</t>
-  </si>
-  <si>
-    <t>HS1260X3</t>
-  </si>
-  <si>
-    <t>HS1270X3</t>
-  </si>
-  <si>
-    <t>HS1290X3</t>
-  </si>
-  <si>
-    <t>HS1275X3</t>
-  </si>
-  <si>
-    <t>TLL2032G</t>
-  </si>
-  <si>
-    <t>HAC32X1B</t>
-  </si>
-  <si>
-    <t>HAC32X1S</t>
-  </si>
-  <si>
-    <t>RJE3/420</t>
-  </si>
-  <si>
-    <t>RJR3/812</t>
-  </si>
-  <si>
-    <t>RJR3/425</t>
-  </si>
-  <si>
-    <t>RJR3/416</t>
-  </si>
-  <si>
-    <t>ZX050017</t>
-  </si>
-  <si>
-    <t>RJR5/438</t>
-  </si>
-  <si>
-    <t>NPCD1670</t>
-  </si>
-  <si>
-    <t>WVCD30X1</t>
-  </si>
-  <si>
-    <t>HSKL2540</t>
-  </si>
-  <si>
-    <t>HSKL5070</t>
-  </si>
-  <si>
-    <t>HSKL1016</t>
-  </si>
-  <si>
-    <t>HSKL1219</t>
-  </si>
-  <si>
-    <t>WPROFX91</t>
-  </si>
-  <si>
-    <t>WPROFX42</t>
-  </si>
-  <si>
-    <t>LRSP125M</t>
-  </si>
-  <si>
-    <t>EMBRAKE2</t>
-  </si>
-  <si>
-    <t>WVCRR104</t>
-  </si>
-  <si>
-    <t>WVCRE108</t>
-  </si>
-  <si>
-    <t>WVCRR108</t>
+    <t>NPC5241</t>
+  </si>
+  <si>
+    <t>NPC6243</t>
+  </si>
+  <si>
+    <t>NKN6403</t>
+  </si>
+  <si>
+    <t>NPCD860</t>
+  </si>
+  <si>
+    <t>LESMXN9</t>
+  </si>
+  <si>
+    <t>TLASS15</t>
+  </si>
+  <si>
+    <t>NSM1/890</t>
   </si>
   <si>
     <t>WVETN6X1</t>
   </si>
   <si>
-    <t>TW506.751</t>
-  </si>
-  <si>
-    <t>XPE0010-A</t>
-  </si>
-  <si>
-    <t>XPE0011-A</t>
-  </si>
-  <si>
-    <t>XPE0006-A</t>
-  </si>
-  <si>
-    <t>SDK0204-A</t>
-  </si>
-  <si>
-    <t>XFK0024-A</t>
-  </si>
-  <si>
-    <t>XPK0052-A</t>
-  </si>
-  <si>
-    <t>XPK0882-A</t>
-  </si>
-  <si>
-    <t>XMM0180-A</t>
-  </si>
-  <si>
-    <t>XPM0960-A</t>
-  </si>
-  <si>
-    <t>XPM0962-A</t>
-  </si>
-  <si>
-    <t>XPM0955-A</t>
-  </si>
-  <si>
-    <t>XPM0816-A</t>
-  </si>
-  <si>
-    <t>XPM0896-A</t>
-  </si>
-  <si>
-    <t>XPM0817-A</t>
-  </si>
-  <si>
-    <t>XPM0809-A</t>
-  </si>
-  <si>
-    <t>XPM0719-A</t>
-  </si>
-  <si>
-    <t>XPP0340-A</t>
-  </si>
-  <si>
-    <t>XPP0250-A</t>
-  </si>
-  <si>
-    <t>XPP0341-A</t>
-  </si>
-  <si>
-    <t>XPP0342-A</t>
-  </si>
-  <si>
-    <t>XPP0343-A</t>
-  </si>
-  <si>
-    <t>XPP0344-A</t>
-  </si>
-  <si>
-    <t>XPP0345-A</t>
-  </si>
-  <si>
-    <t>XPP0348-A</t>
-  </si>
-  <si>
-    <t>XPP0288-A</t>
-  </si>
-  <si>
-    <t>XPS0104-A</t>
-  </si>
-  <si>
-    <t>LRA1/21/4</t>
-  </si>
-  <si>
-    <t>LRA1/21/8</t>
-  </si>
-  <si>
-    <t>LRA1/41/8</t>
-  </si>
-  <si>
-    <t>XPK1860-A</t>
-  </si>
-  <si>
-    <t>XPK1903-A</t>
-  </si>
-  <si>
-    <t>XPK1878-A</t>
-  </si>
-  <si>
-    <t>LRK1/216P</t>
-  </si>
-  <si>
-    <t>LRK1/88PX</t>
-  </si>
-  <si>
-    <t>XPM1310-A</t>
-  </si>
-  <si>
-    <t>XPM1301-A</t>
-  </si>
-  <si>
-    <t>XPM1311-A</t>
-  </si>
-  <si>
-    <t>XPM1341-A</t>
-  </si>
-  <si>
-    <t>XPM1012-A</t>
-  </si>
-  <si>
-    <t>XPM1342-A</t>
-  </si>
-  <si>
-    <t>XPM1262-A</t>
-  </si>
-  <si>
-    <t>XPM1165-A</t>
-  </si>
-  <si>
-    <t>XPT1982-A</t>
-  </si>
-  <si>
-    <t>XPT1406-A</t>
-  </si>
-  <si>
-    <t>HS12200X3</t>
-  </si>
-  <si>
-    <t>XPK2646-A</t>
-  </si>
-  <si>
-    <t>XPB3280-A</t>
-  </si>
-  <si>
-    <t>XPB3234-A</t>
-  </si>
-  <si>
-    <t>XPB3235-A</t>
-  </si>
-  <si>
-    <t>XPB3246-A</t>
-  </si>
-  <si>
-    <t>XPB3237-A</t>
-  </si>
-  <si>
-    <t>XPB3237-B</t>
-  </si>
-  <si>
-    <t>XPB3247-A</t>
-  </si>
-  <si>
-    <t>XPB3257-A</t>
-  </si>
-  <si>
-    <t>XPB3279-A</t>
-  </si>
-  <si>
-    <t>RRI3/812L</t>
-  </si>
-  <si>
-    <t>XPK3120-A</t>
-  </si>
-  <si>
-    <t>XPK3160-A</t>
-  </si>
-  <si>
-    <t>XPK3160-B</t>
-  </si>
-  <si>
-    <t>XPK3070-A</t>
-  </si>
-  <si>
-    <t>XPK3143-A</t>
-  </si>
-  <si>
-    <t>XPK3144-A</t>
-  </si>
-  <si>
-    <t>XPK3154-A</t>
-  </si>
-  <si>
-    <t>XPK3058-A</t>
-  </si>
-  <si>
-    <t>XPK3069-A</t>
-  </si>
-  <si>
-    <t>HS25800X3</t>
-  </si>
-  <si>
-    <t>HS25120X3</t>
-  </si>
-  <si>
-    <t>HS25160X3</t>
-  </si>
-  <si>
-    <t>TTL5500X3</t>
-  </si>
-  <si>
-    <t>TLK6207Z1</t>
-  </si>
-  <si>
-    <t>HS38400X3</t>
-  </si>
-  <si>
-    <t>TRR804020</t>
-  </si>
-  <si>
-    <t>IFPBMUBE1</t>
-  </si>
-  <si>
-    <t>IFPBMUBE2</t>
-  </si>
-  <si>
-    <t>IFPBMUBE5</t>
-  </si>
-  <si>
-    <t>WLADDER12</t>
-  </si>
-  <si>
-    <t>HSRG865X3</t>
-  </si>
-  <si>
-    <t>RJRI1/212</t>
-  </si>
-  <si>
-    <t>RJRI1/216</t>
-  </si>
-  <si>
-    <t>RJRI1/410</t>
-  </si>
-  <si>
-    <t>RJRI3/812</t>
-  </si>
-  <si>
-    <t>RJRI3/420</t>
-  </si>
-  <si>
-    <t>YPBPVC200</t>
-  </si>
-  <si>
-    <t>LRSP1/46M</t>
-  </si>
-  <si>
-    <t>LRSP3/86M</t>
-  </si>
-  <si>
-    <t>WVCRE1/48</t>
-  </si>
-  <si>
-    <t>WVCRR1/84</t>
-  </si>
-  <si>
-    <t>LSNR27M10</t>
-  </si>
-  <si>
-    <t>LSNR27V10</t>
-  </si>
-  <si>
-    <t>TGRRW453L</t>
-  </si>
-  <si>
-    <t>TGRW253D6</t>
-  </si>
-  <si>
-    <t>ESMX70BSI</t>
-  </si>
-  <si>
-    <t>ESMX70OSI</t>
-  </si>
-  <si>
-    <t>ESMX70RSI</t>
-  </si>
-  <si>
-    <t>ESMX70ZSI</t>
-  </si>
-  <si>
-    <t>HSRG8650X3</t>
-  </si>
-  <si>
-    <t>LRSP1/210M</t>
-  </si>
-  <si>
-    <t>LRSP1/410M</t>
-  </si>
-  <si>
-    <t>LRSP3/413M</t>
-  </si>
-  <si>
-    <t>LRSP3/810M</t>
-  </si>
-  <si>
-    <t>TGRRWK453A</t>
-  </si>
-  <si>
-    <t>YPASV50501</t>
-  </si>
-  <si>
-    <t>TGRW553D6L</t>
-  </si>
-  <si>
-    <t>TMP225Z23X1</t>
-  </si>
-  <si>
-    <t>HSRG81000X3</t>
-  </si>
-  <si>
-    <t>HSRG16900X3</t>
-  </si>
-  <si>
-    <t>HSRG12950X3</t>
-  </si>
-  <si>
-    <t>LSNR27M1/4M</t>
-  </si>
-  <si>
-    <t>TGRRW553LX1</t>
-  </si>
-  <si>
-    <t>HSRG121000X3</t>
-  </si>
-  <si>
-    <t>HSRG252000X3</t>
-  </si>
-  <si>
-    <t>HSRG251200X3</t>
-  </si>
-  <si>
-    <t>HSRG121400X3</t>
+    <t>TGRWK253</t>
+  </si>
+  <si>
+    <t>XPT0671-A</t>
+  </si>
+  <si>
+    <t>XPT0597-A</t>
+  </si>
+  <si>
+    <t>XPT0598-A</t>
+  </si>
+  <si>
+    <t>XPT0599-A</t>
+  </si>
+  <si>
+    <t>TLG101620</t>
+  </si>
+  <si>
+    <t>XPT1470-A</t>
+  </si>
+  <si>
+    <t>XPT1461-A</t>
+  </si>
+  <si>
+    <t>XPT1472-A</t>
+  </si>
+  <si>
+    <t>XPT1513-A</t>
+  </si>
+  <si>
+    <t>XPT1514-A</t>
+  </si>
+  <si>
+    <t>XPT1516-A</t>
+  </si>
+  <si>
+    <t>XPT1536-A</t>
+  </si>
+  <si>
+    <t>XPT1446-A</t>
+  </si>
+  <si>
+    <t>XPT1537-A</t>
+  </si>
+  <si>
+    <t>XPT1538-A</t>
+  </si>
+  <si>
+    <t>LVE52VS18</t>
+  </si>
+  <si>
+    <t>TRR501510</t>
+  </si>
+  <si>
+    <t>TBSP35530</t>
+  </si>
+  <si>
+    <t>TBSP30550</t>
+  </si>
+  <si>
+    <t>WVCRT1/84</t>
+  </si>
+  <si>
+    <t>XPT1443L-A</t>
+  </si>
+  <si>
+    <t>LVEV32VS18</t>
+  </si>
+  <si>
+    <t>TGRW253D6L</t>
   </si>
   <si>
     <t>BS6.0X53/M4CE</t>
   </si>
   <si>
-    <t>BCHHSKA63D40L250</t>
-  </si>
-  <si>
-    <t>BRWPHSKA63M4L182</t>
-  </si>
-  <si>
-    <t>ES6FX8002-5CG10-1CG0</t>
-  </si>
-  <si>
-    <t>ES6FX8002-5CA38-1CE0</t>
-  </si>
-  <si>
-    <t>ES6FX8002-5DG10-1CJ0</t>
-  </si>
-  <si>
-    <t>ES6FX8002-5DG32-1CG0</t>
-  </si>
-  <si>
-    <t>ES6FX8002-5DS23-1CG0</t>
-  </si>
-  <si>
-    <t>ES6FX8002-5DS23-1CJ0</t>
-  </si>
-  <si>
-    <t>ES6FX8002-5DX28-1BG0</t>
-  </si>
-  <si>
-    <t>ES6FX8002-5DQ38-1BH0</t>
-  </si>
-  <si>
-    <t>LLB8</t>
-  </si>
-  <si>
-    <t>WVCH4</t>
-  </si>
-  <si>
-    <t>LL8UZ</t>
-  </si>
-  <si>
-    <t>LL10EP</t>
-  </si>
-  <si>
-    <t>LL50EP</t>
-  </si>
-  <si>
-    <t>LL12UZ</t>
-  </si>
-  <si>
-    <t>EKSIES6FX8008-2DC00</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>XPS0095-A</t>
-  </si>
-  <si>
-    <t>XPS0096-A</t>
-  </si>
-  <si>
-    <t>XPS0098-A</t>
-  </si>
-  <si>
-    <t>XPK1550-A</t>
-  </si>
-  <si>
-    <t>XPB2430-A</t>
-  </si>
-  <si>
-    <t>XPB2428-A</t>
-  </si>
-  <si>
-    <t>XPB2429-A</t>
-  </si>
-  <si>
-    <t>TB25</t>
-  </si>
-  <si>
-    <t>ZX050B</t>
-  </si>
-  <si>
-    <t>BGLP1</t>
-  </si>
-  <si>
-    <t>LRD3/8</t>
-  </si>
-  <si>
-    <t>RJE3/425</t>
-  </si>
-  <si>
-    <t>LRSP250M</t>
-  </si>
-  <si>
-    <t>TMP103Z20X1</t>
-  </si>
-  <si>
-    <t>EMKG16500X1</t>
-  </si>
-  <si>
-    <t>HFSTMF300/980X1</t>
-  </si>
-  <si>
-    <t>BLCNTA5HSKA63L400</t>
+    <t>BRWPHSKF63M4L182</t>
+  </si>
+  <si>
+    <t>71333E</t>
+  </si>
+  <si>
+    <t>XPT0874-A</t>
+  </si>
+  <si>
+    <t>XPT1661-A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1291,35 +1473,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="16" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="16"/>
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
     <cellStyle name="Normal 5" xfId="6"/>
     <cellStyle name="Normal 6" xfId="9"/>
     <cellStyle name="Normal 7" xfId="12"/>
+    <cellStyle name="Normal 8" xfId="15"/>
     <cellStyle name="Normalny 2" xfId="4"/>
     <cellStyle name="Normalny 2 2" xfId="5"/>
     <cellStyle name="Normalny 2 2 2" xfId="10"/>
@@ -1329,7 +1515,17 @@
     <cellStyle name="Normalny 4 2" xfId="13"/>
     <cellStyle name="Normalny 5" xfId="14"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1650,1964 +1846,2393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A389"/>
+  <dimension ref="A1:A474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>13</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>32</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>92</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>95</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>96</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>19</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>99</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>101</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>102</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>103</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>108</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>113</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>114</v>
+        <v>318</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>116</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>120</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>121</v>
+        <v>330</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>122</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>123</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>124</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>125</v>
+        <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>126</v>
+        <v>327</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>127</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>128</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>130</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>132</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>133</v>
+        <v>325</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>5</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>135</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>136</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>137</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>138</v>
+        <v>291</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>139</v>
+        <v>361</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>8</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>140</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>141</v>
+        <v>266</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>143</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>145</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>23</v>
+        <v>207</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>24</v>
+        <v>357</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>146</v>
+        <v>367</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>147</v>
+        <v>368</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>148</v>
+        <v>369</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>149</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>150</v>
+        <v>366</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>151</v>
+        <v>247</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>152</v>
+        <v>321</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>153</v>
+        <v>358</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>154</v>
+        <v>350</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>155</v>
+        <v>355</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>156</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>157</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>158</v>
+        <v>285</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>159</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>160</v>
+        <v>303</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>162</v>
+        <v>348</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>163</v>
+        <v>302</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>16</v>
+        <v>356</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>164</v>
+        <v>359</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>165</v>
+        <v>320</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>166</v>
+        <v>276</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>21</v>
+        <v>243</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>22</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>167</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>168</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>169</v>
+        <v>360</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>170</v>
+        <v>300</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>171</v>
+        <v>277</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>172</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>173</v>
+        <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>175</v>
+        <v>269</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>177</v>
+        <v>271</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>178</v>
+        <v>379</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>180</v>
+        <v>255</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>181</v>
+        <v>264</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>182</v>
+        <v>386</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>6</v>
+        <v>274</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>183</v>
+        <v>328</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>184</v>
+        <v>273</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>185</v>
+        <v>390</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>186</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>188</v>
+        <v>306</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>36</v>
+        <v>384</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>15</v>
+        <v>385</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>190</v>
+        <v>283</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>193</v>
+        <v>298</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>31</v>
+        <v>219</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>194</v>
+        <v>372</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>195</v>
+        <v>374</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>196</v>
+        <v>377</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>197</v>
+        <v>375</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>198</v>
+        <v>371</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>199</v>
+        <v>373</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>200</v>
+        <v>376</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>209</v>
+        <v>66</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>210</v>
+        <v>332</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>211</v>
+        <v>338</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>212</v>
+        <v>336</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>218</v>
+        <v>337</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>222</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>223</v>
+        <v>65</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>225</v>
+        <v>344</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>226</v>
+        <v>343</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>233</v>
+        <v>89</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>234</v>
+        <v>109</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>236</v>
+        <v>69</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>237</v>
+        <v>92</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>238</v>
+        <v>94</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>241</v>
+        <v>98</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>242</v>
+        <v>149</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>244</v>
+        <v>179</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>245</v>
+        <v>103</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>248</v>
+        <v>114</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>250</v>
+        <v>176</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>251</v>
+        <v>153</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>253</v>
+        <v>158</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>256</v>
+        <v>68</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>257</v>
+        <v>145</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>260</v>
+        <v>97</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>261</v>
+        <v>362</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>262</v>
+        <v>363</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>263</v>
+        <v>91</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>264</v>
+        <v>71</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>267</v>
+        <v>110</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>268</v>
+        <v>104</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>269</v>
+        <v>105</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>270</v>
+        <v>107</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>271</v>
+        <v>93</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>7</v>
+        <v>287</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>25</v>
+        <v>246</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>283</v>
+        <v>173</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>284</v>
+        <v>347</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>289</v>
+        <v>78</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>290</v>
+        <v>99</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>291</v>
+        <v>224</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>18</v>
+        <v>225</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>292</v>
+        <v>142</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>295</v>
+        <v>235</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>297</v>
+        <v>210</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>298</v>
+        <v>212</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>300</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>302</v>
+        <v>213</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>304</v>
+        <v>102</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>305</v>
+        <v>216</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>307</v>
+        <v>162</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>310</v>
+        <v>107</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>311</v>
+        <v>88</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>314</v>
+        <v>147</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>315</v>
+        <v>195</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>319</v>
+        <v>77</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>320</v>
+        <v>188</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>322</v>
+        <v>191</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>4</v>
+        <v>194</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>323</v>
+        <v>183</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>324</v>
+        <v>185</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>325</v>
+        <v>186</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>326</v>
+        <v>187</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>328</v>
+        <v>120</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>329</v>
+        <v>123</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>330</v>
+        <v>126</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>331</v>
+        <v>129</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>332</v>
+        <v>132</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>333</v>
+        <v>135</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>334</v>
+        <v>190</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>335</v>
+        <v>192</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>336</v>
+        <v>193</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>337</v>
+        <v>182</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>338</v>
+        <v>184</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>339</v>
+        <v>79</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>340</v>
+        <v>118</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>341</v>
+        <v>121</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>342</v>
+        <v>122</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>343</v>
+        <v>124</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>344</v>
+        <v>127</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>345</v>
+        <v>130</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>346</v>
+        <v>133</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>347</v>
+        <v>119</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>348</v>
+        <v>80</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>349</v>
+        <v>81</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>350</v>
+        <v>82</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>351</v>
+        <v>83</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>352</v>
+        <v>84</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>353</v>
+        <v>85</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>354</v>
+        <v>86</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>356</v>
+        <v>138</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>357</v>
+        <v>140</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>358</v>
+        <v>125</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>359</v>
+        <v>128</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>360</v>
+        <v>131</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>361</v>
+        <v>134</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>362</v>
+        <v>137</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>363</v>
+        <v>44</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>368</v>
+        <v>61</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>373</v>
+        <v>178</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>374</v>
+        <v>171</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>375</v>
+        <v>115</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>376</v>
+        <v>268</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>377</v>
+        <v>163</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>378</v>
+        <v>144</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>380</v>
+        <v>75</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>382</v>
+        <v>316</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>385</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A476:A1048576 A1:A438">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A445 A476:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MubeaArticles.xlsx
+++ b/MubeaArticles.xlsx
@@ -14,1050 +14,1053 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="445">
+  <si>
+    <t>Article code</t>
+  </si>
+  <si>
+    <t>NT20</t>
+  </si>
+  <si>
+    <t>HW3/8</t>
+  </si>
+  <si>
+    <t>WTR18</t>
+  </si>
+  <si>
+    <t>NRS24</t>
+  </si>
+  <si>
+    <t>BSPM1</t>
+  </si>
+  <si>
+    <t>HKWT1</t>
+  </si>
+  <si>
+    <t>LD1/4S</t>
+  </si>
+  <si>
+    <t>HKT1/2</t>
+  </si>
+  <si>
+    <t>HFD336</t>
+  </si>
+  <si>
+    <t>EZM63S</t>
+  </si>
+  <si>
+    <t>LESMX8</t>
+  </si>
+  <si>
+    <t>HDSX22</t>
+  </si>
+  <si>
+    <t>EVTX6R</t>
+  </si>
+  <si>
+    <t>NFB1089</t>
+  </si>
+  <si>
+    <t>RJD2525</t>
+  </si>
+  <si>
+    <t>RJK3845</t>
+  </si>
+  <si>
+    <t>TGR453B</t>
+  </si>
+  <si>
+    <t>TGR553B</t>
+  </si>
+  <si>
+    <t>WVPAS32</t>
+  </si>
+  <si>
+    <t>LESMX15</t>
+  </si>
+  <si>
+    <t>LESMX19</t>
+  </si>
+  <si>
+    <t>ESMX21T</t>
+  </si>
+  <si>
+    <t>WDBASM30</t>
+  </si>
+  <si>
+    <t>WDBASM16</t>
+  </si>
+  <si>
+    <t>WDBASM36</t>
+  </si>
+  <si>
+    <t>EPLC8DIS</t>
+  </si>
+  <si>
+    <t>EPLC8DOS</t>
+  </si>
+  <si>
+    <t>ERLK3C4S</t>
+  </si>
+  <si>
+    <t>ELBPLEDS</t>
+  </si>
+  <si>
+    <t>ELBX2LED</t>
+  </si>
+  <si>
+    <t>XPP0347-A</t>
+  </si>
+  <si>
+    <t>XPP0289-A</t>
+  </si>
+  <si>
+    <t>XPK1566-A</t>
+  </si>
+  <si>
+    <t>XPM1041-A</t>
+  </si>
+  <si>
+    <t>XPM1039-A</t>
+  </si>
+  <si>
+    <t>XPK2683-A</t>
+  </si>
+  <si>
+    <t>XPK2125-A</t>
+  </si>
+  <si>
+    <t>XPK2437-A</t>
+  </si>
+  <si>
+    <t>XPK2438-A</t>
+  </si>
+  <si>
+    <t>XPB3249-A</t>
+  </si>
+  <si>
+    <t>TTL3500X1</t>
+  </si>
+  <si>
+    <t>LSNR27V10</t>
+  </si>
+  <si>
+    <t>XPM1102L-A</t>
+  </si>
+  <si>
+    <t>TTL31000X1</t>
+  </si>
+  <si>
+    <t>TTL51000X3</t>
+  </si>
+  <si>
+    <t>EBSM8CM12C</t>
+  </si>
+  <si>
+    <t>LVE32VTSA02</t>
+  </si>
+  <si>
+    <t>LVE52VTSA02</t>
+  </si>
+  <si>
+    <t>LFDRO1/2F1C</t>
+  </si>
+  <si>
+    <t>LFDRO1/2F5C</t>
+  </si>
+  <si>
+    <t>ERLS2P24DCS</t>
+  </si>
+  <si>
+    <t>LFDRO1/2F0.01C</t>
+  </si>
+  <si>
+    <t>EM57.1HSKA63AC7</t>
+  </si>
+  <si>
+    <t>BHHHSKA63D20L90</t>
+  </si>
+  <si>
+    <t>BSHHSKA63D27L100</t>
+  </si>
+  <si>
+    <t>R220.97-0063-V22.4A</t>
+  </si>
+  <si>
+    <t>VPGX220605ER-E10-H25</t>
+  </si>
+  <si>
+    <t>522200R050Z2.0-MEGA-64</t>
+  </si>
+  <si>
+    <t>JS453200E2R050.0Z3-HEMI</t>
+  </si>
+  <si>
+    <t>71902E</t>
+  </si>
+  <si>
+    <t>XPB1661-A</t>
+  </si>
+  <si>
+    <t>XPK1906-A</t>
+  </si>
+  <si>
+    <t>XPM1321-A</t>
+  </si>
+  <si>
+    <t>TB30</t>
+  </si>
+  <si>
+    <t>WTR3</t>
+  </si>
+  <si>
+    <t>TB25</t>
+  </si>
+  <si>
+    <t>RN1/8</t>
+  </si>
+  <si>
+    <t>RT1/4</t>
+  </si>
+  <si>
+    <t>NCU10</t>
+  </si>
+  <si>
+    <t>WTR21</t>
+  </si>
+  <si>
+    <t>WTR28</t>
+  </si>
+  <si>
+    <t>WTR35</t>
+  </si>
+  <si>
+    <t>WTR36</t>
+  </si>
+  <si>
+    <t>WTR39</t>
+  </si>
+  <si>
+    <t>LKT44</t>
+  </si>
+  <si>
+    <t>WTR68</t>
+  </si>
+  <si>
+    <t>IFP70</t>
+  </si>
+  <si>
+    <t>TMP71</t>
+  </si>
+  <si>
+    <t>IFPC1</t>
+  </si>
+  <si>
+    <t>IFPC3</t>
+  </si>
+  <si>
+    <t>IFPC4</t>
+  </si>
+  <si>
+    <t>IFPC5</t>
+  </si>
+  <si>
+    <t>IFPC6</t>
+  </si>
+  <si>
+    <t>IFPC7</t>
+  </si>
+  <si>
+    <t>IFPC8</t>
+  </si>
+  <si>
+    <t>IFPC9</t>
+  </si>
+  <si>
+    <t>WVCL3</t>
+  </si>
+  <si>
+    <t>WVCL8</t>
+  </si>
+  <si>
+    <t>NM40X1</t>
+  </si>
+  <si>
+    <t>NM50X1</t>
+  </si>
+  <si>
+    <t>LW21/2</t>
+  </si>
+  <si>
+    <t>NSC1/2</t>
+  </si>
+  <si>
+    <t>NSC1/4</t>
+  </si>
+  <si>
+    <t>NSC1/8</t>
+  </si>
+  <si>
+    <t>LRD1/4</t>
+  </si>
+  <si>
+    <t>LRD1/8</t>
+  </si>
+  <si>
+    <t>LRE1/2</t>
+  </si>
+  <si>
+    <t>NSM1/4</t>
+  </si>
+  <si>
+    <t>DDR102</t>
+  </si>
+  <si>
+    <t>TMP252</t>
+  </si>
+  <si>
+    <t>LL13EP</t>
+  </si>
+  <si>
+    <t>IHV428</t>
+  </si>
+  <si>
+    <t>NM25X1</t>
+  </si>
+  <si>
+    <t>NAS550</t>
+  </si>
+  <si>
+    <t>NQB620</t>
+  </si>
+  <si>
+    <t>NHC615</t>
+  </si>
+  <si>
+    <t>NSM690</t>
+  </si>
+  <si>
+    <t>DOR603</t>
+  </si>
+  <si>
+    <t>NFB891</t>
+  </si>
+  <si>
+    <t>NKN840</t>
+  </si>
+  <si>
+    <t>NKN880</t>
+  </si>
+  <si>
+    <t>NTN8X2</t>
+  </si>
+  <si>
+    <t>NSP820</t>
+  </si>
+  <si>
+    <t>NSP830</t>
+  </si>
+  <si>
+    <t>NSP850</t>
+  </si>
+  <si>
+    <t>NSP825</t>
+  </si>
+  <si>
+    <t>NSP835</t>
+  </si>
+  <si>
+    <t>IFPC10</t>
+  </si>
+  <si>
+    <t>IFPC20</t>
+  </si>
+  <si>
+    <t>IFPC30</t>
+  </si>
+  <si>
+    <t>IFPC11</t>
+  </si>
+  <si>
+    <t>IFPC12</t>
+  </si>
+  <si>
+    <t>IFPC32</t>
+  </si>
+  <si>
+    <t>IFPC13</t>
+  </si>
+  <si>
+    <t>IFPC23</t>
+  </si>
+  <si>
+    <t>IFPC33</t>
+  </si>
+  <si>
+    <t>IFPC14</t>
+  </si>
+  <si>
+    <t>IFPC24</t>
+  </si>
+  <si>
+    <t>IFPC34</t>
+  </si>
+  <si>
+    <t>IFPC15</t>
+  </si>
+  <si>
+    <t>IFPC25</t>
+  </si>
+  <si>
+    <t>IFPC35</t>
+  </si>
+  <si>
+    <t>IFPC16</t>
+  </si>
+  <si>
+    <t>IFPC26</t>
+  </si>
+  <si>
+    <t>IFPC36</t>
+  </si>
+  <si>
+    <t>IFPC17</t>
+  </si>
+  <si>
+    <t>IFPC27</t>
+  </si>
+  <si>
+    <t>IFPC18</t>
+  </si>
+  <si>
+    <t>IFPC28</t>
+  </si>
+  <si>
+    <t>IFPC19</t>
+  </si>
+  <si>
+    <t>TLLD12</t>
+  </si>
+  <si>
+    <t>WVCPP2</t>
+  </si>
+  <si>
+    <t>WVCPP7</t>
+  </si>
+  <si>
+    <t>DORR20</t>
+  </si>
+  <si>
+    <t>WVCSR1</t>
+  </si>
+  <si>
+    <t>WVCSR4</t>
+  </si>
+  <si>
+    <t>WVETP6</t>
+  </si>
+  <si>
+    <t>LKWTM3</t>
+  </si>
+  <si>
+    <t>NPLUG6</t>
+  </si>
+  <si>
+    <t>DORV62</t>
+  </si>
+  <si>
+    <t>NM20SKF</t>
+  </si>
+  <si>
+    <t>NPC1040</t>
+  </si>
+  <si>
+    <t>TKL1423</t>
+  </si>
+  <si>
+    <t>TKL1826</t>
+  </si>
+  <si>
+    <t>NSP1070</t>
+  </si>
+  <si>
+    <t>TR720X2</t>
+  </si>
+  <si>
+    <t>VSG2228</t>
+  </si>
+  <si>
+    <t>TVL2428</t>
+  </si>
+  <si>
+    <t>TGR256B</t>
+  </si>
+  <si>
+    <t>VST2087</t>
+  </si>
+  <si>
+    <t>EM.3B51</t>
+  </si>
+  <si>
+    <t>TW63904</t>
+  </si>
+  <si>
+    <t>VSD3448</t>
+  </si>
+  <si>
+    <t>DOK3042</t>
+  </si>
+  <si>
+    <t>TKL3243</t>
+  </si>
+  <si>
+    <t>TGR306B</t>
+  </si>
+  <si>
+    <t>LVB41/8</t>
+  </si>
+  <si>
+    <t>IMG6063</t>
+  </si>
+  <si>
+    <t>DOK6080</t>
+  </si>
+  <si>
+    <t>TLK7210</t>
+  </si>
+  <si>
+    <t>VM18352</t>
+  </si>
+  <si>
+    <t>NKN8603</t>
+  </si>
+  <si>
+    <t>WVPAS35</t>
+  </si>
+  <si>
+    <t>NPCD620</t>
+  </si>
+  <si>
+    <t>NPCD820</t>
+  </si>
+  <si>
+    <t>NPCD830</t>
+  </si>
+  <si>
+    <t>NPCD640</t>
+  </si>
+  <si>
+    <t>NPCD840</t>
+  </si>
+  <si>
+    <t>NPCD850</t>
+  </si>
+  <si>
+    <t>NPCD870</t>
+  </si>
+  <si>
+    <t>NPCD624</t>
+  </si>
+  <si>
+    <t>IFPH120</t>
+  </si>
+  <si>
+    <t>IFPH130</t>
+  </si>
+  <si>
+    <t>IFPH121</t>
+  </si>
+  <si>
+    <t>IFPH131</t>
+  </si>
+  <si>
+    <t>IFPH132</t>
+  </si>
+  <si>
+    <t>IFPH133</t>
+  </si>
+  <si>
+    <t>IFPH124</t>
+  </si>
+  <si>
+    <t>IFPH125</t>
+  </si>
+  <si>
+    <t>IFPH117</t>
+  </si>
+  <si>
+    <t>IFPH127</t>
+  </si>
+  <si>
+    <t>IFPH118</t>
+  </si>
+  <si>
+    <t>IFPH119</t>
+  </si>
+  <si>
+    <t>IFPH129</t>
+  </si>
+  <si>
+    <t>LESMXN4</t>
+  </si>
+  <si>
+    <t>LESMXN8</t>
+  </si>
+  <si>
+    <t>IKSM616</t>
+  </si>
+  <si>
+    <t>WVCRE64</t>
+  </si>
+  <si>
+    <t>WVCRR64</t>
+  </si>
+  <si>
+    <t>DORRA15</t>
+  </si>
+  <si>
+    <t>TLASK10</t>
+  </si>
+  <si>
+    <t>TLASS10</t>
+  </si>
+  <si>
+    <t>TLASK30</t>
+  </si>
+  <si>
+    <t>TLASS30</t>
+  </si>
+  <si>
+    <t>TLASK15</t>
+  </si>
+  <si>
+    <t>WVCSRA1</t>
+  </si>
+  <si>
+    <t>WVCSRA4</t>
+  </si>
+  <si>
+    <t>EKKT200</t>
+  </si>
+  <si>
+    <t>WVCV1X3</t>
+  </si>
+  <si>
+    <t>WVCV1X5</t>
+  </si>
+  <si>
+    <t>WVCV1X6</t>
+  </si>
+  <si>
+    <t>WVCV1X7</t>
+  </si>
+  <si>
+    <t>NFB16170</t>
+  </si>
+  <si>
+    <t>NFB12145</t>
+  </si>
+  <si>
+    <t>LRB1/84P</t>
+  </si>
+  <si>
+    <t>IHK100X1</t>
+  </si>
+  <si>
+    <t>LRK1/84P</t>
+  </si>
+  <si>
+    <t>LRK1/86P</t>
+  </si>
+  <si>
+    <t>ECP1FSCS</t>
+  </si>
+  <si>
+    <t>LRR1/86P</t>
+  </si>
+  <si>
+    <t>IHV105X2</t>
+  </si>
+  <si>
+    <t>TLL3040G</t>
+  </si>
+  <si>
+    <t>WLADDER8</t>
+  </si>
+  <si>
+    <t>WVCD10X1</t>
+  </si>
+  <si>
+    <t>WVCD30X1</t>
+  </si>
+  <si>
+    <t>HSKL1219</t>
+  </si>
+  <si>
+    <t>LRKM54PX</t>
+  </si>
+  <si>
+    <t>WPROFX42</t>
+  </si>
+  <si>
+    <t>WPROFX23</t>
+  </si>
+  <si>
+    <t>WPROFX43</t>
+  </si>
+  <si>
+    <t>WPROFX93</t>
+  </si>
+  <si>
+    <t>WPROFX29</t>
+  </si>
+  <si>
+    <t>WVCRR104</t>
+  </si>
+  <si>
+    <t>WVCRE108</t>
+  </si>
+  <si>
+    <t>WVCRR108</t>
+  </si>
+  <si>
+    <t>TGRRW353</t>
+  </si>
+  <si>
+    <t>WVCTANK3</t>
+  </si>
+  <si>
+    <t>TW506.751</t>
+  </si>
+  <si>
+    <t>XPB0715-A</t>
+  </si>
+  <si>
+    <t>XPB0056-A</t>
+  </si>
+  <si>
+    <t>XPE0282-A</t>
+  </si>
+  <si>
+    <t>XPE0094-A</t>
+  </si>
+  <si>
+    <t>SDK0122-A</t>
+  </si>
+  <si>
+    <t>XPK0042-A</t>
+  </si>
+  <si>
+    <t>XPK0023-A</t>
+  </si>
+  <si>
+    <t>XPK0005-A</t>
+  </si>
+  <si>
+    <t>XPK0668-A</t>
+  </si>
+  <si>
+    <t>XPM0150-A</t>
+  </si>
+  <si>
+    <t>XPM0641-A</t>
+  </si>
+  <si>
+    <t>XPM0061-A</t>
+  </si>
+  <si>
+    <t>XPM0642-A</t>
+  </si>
+  <si>
+    <t>XPM0145-A</t>
+  </si>
+  <si>
+    <t>XPM0116-A</t>
+  </si>
+  <si>
+    <t>XPM0577-A</t>
+  </si>
+  <si>
+    <t>XPM0568-A</t>
+  </si>
+  <si>
+    <t>XPM0629-A</t>
+  </si>
+  <si>
+    <t>XPM0579-A</t>
+  </si>
+  <si>
+    <t>XPP0001-A</t>
+  </si>
+  <si>
+    <t>XPP0002-A</t>
+  </si>
+  <si>
+    <t>XPP0103-A</t>
+  </si>
+  <si>
+    <t>XPP0233-A</t>
+  </si>
+  <si>
+    <t>XPP0005-A</t>
+  </si>
+  <si>
+    <t>XPP0226-A</t>
+  </si>
+  <si>
+    <t>XPP0096-A</t>
+  </si>
+  <si>
+    <t>XPP0217-A</t>
+  </si>
+  <si>
+    <t>XPP0218-A</t>
+  </si>
+  <si>
+    <t>XPP0219-A</t>
+  </si>
+  <si>
+    <t>XPP0329-A</t>
+  </si>
+  <si>
+    <t>XPS0100-A</t>
+  </si>
+  <si>
+    <t>XPS0151-A</t>
+  </si>
+  <si>
+    <t>XPS0103-A</t>
+  </si>
+  <si>
+    <t>XPS0024-A</t>
+  </si>
+  <si>
+    <t>XPS0154-A</t>
+  </si>
+  <si>
+    <t>XPS0068-A</t>
+  </si>
+  <si>
+    <t>XPT0036-A</t>
+  </si>
+  <si>
+    <t>XPT0196-A</t>
+  </si>
+  <si>
+    <t>XPT0148-A</t>
+  </si>
+  <si>
+    <t>LRA1/41/8</t>
+  </si>
+  <si>
+    <t>NFB161001</t>
+  </si>
+  <si>
+    <t>XPB1730-A</t>
+  </si>
+  <si>
+    <t>XPB1870-A</t>
+  </si>
+  <si>
+    <t>XPB1691-A</t>
+  </si>
+  <si>
+    <t>XPB1942-A</t>
+  </si>
+  <si>
+    <t>XPB1692-A</t>
+  </si>
+  <si>
+    <t>XPB1903-A</t>
+  </si>
+  <si>
+    <t>XPB1793-A</t>
+  </si>
+  <si>
+    <t>XPB1926-A</t>
+  </si>
+  <si>
+    <t>XPB1996-A</t>
+  </si>
+  <si>
+    <t>XPB1807-A</t>
+  </si>
+  <si>
+    <t>XPB1929-A</t>
+  </si>
+  <si>
+    <t>XPB1849-A</t>
+  </si>
+  <si>
+    <t>TLG101210</t>
+  </si>
+  <si>
+    <t>XPK1590-A</t>
+  </si>
+  <si>
+    <t>XPK1431-A</t>
+  </si>
+  <si>
+    <t>XPK1622-A</t>
+  </si>
+  <si>
+    <t>XPK1432-A</t>
+  </si>
+  <si>
+    <t>XPK1433-A</t>
+  </si>
+  <si>
+    <t>XPK1653-A</t>
+  </si>
+  <si>
+    <t>XPK1534-A</t>
+  </si>
+  <si>
+    <t>XPK1595-A</t>
+  </si>
+  <si>
+    <t>XPK1436-A</t>
+  </si>
+  <si>
+    <t>XPK1646-A</t>
+  </si>
+  <si>
+    <t>XPK1437-A</t>
+  </si>
+  <si>
+    <t>XPK1647-A</t>
+  </si>
+  <si>
+    <t>XPK1478-A</t>
+  </si>
+  <si>
+    <t>XPK1599-A</t>
+  </si>
+  <si>
+    <t>LRK1/86PX</t>
+  </si>
+  <si>
+    <t>LRR1/84PX</t>
+  </si>
+  <si>
+    <t>LRR1/86PX</t>
+  </si>
+  <si>
+    <t>LRR1/48PX</t>
+  </si>
+  <si>
+    <t>LRR1/88PX</t>
+  </si>
+  <si>
+    <t>XPT1512-A</t>
+  </si>
+  <si>
+    <t>XPT1252-A</t>
+  </si>
+  <si>
+    <t>XPT1023-A</t>
+  </si>
+  <si>
+    <t>XPT1254-A</t>
+  </si>
+  <si>
+    <t>XPT1417-A</t>
+  </si>
+  <si>
+    <t>XPT1428-A</t>
+  </si>
+  <si>
+    <t>XPB2020-A</t>
+  </si>
+  <si>
+    <t>XPB2082-A</t>
+  </si>
+  <si>
+    <t>XPB2014-A</t>
+  </si>
+  <si>
+    <t>XPB2015-A</t>
+  </si>
+  <si>
+    <t>XPB2995-A</t>
+  </si>
+  <si>
+    <t>XPB2016-A</t>
+  </si>
+  <si>
+    <t>XPK2102-A</t>
+  </si>
+  <si>
+    <t>XPK2942-A</t>
+  </si>
+  <si>
+    <t>XPK2107-A</t>
+  </si>
+  <si>
+    <t>XPK2108-A</t>
+  </si>
+  <si>
+    <t>XPK2088-A</t>
+  </si>
+  <si>
+    <t>XPB3290-A</t>
+  </si>
+  <si>
+    <t>XPB3291-A</t>
+  </si>
+  <si>
+    <t>LVE32VS18</t>
+  </si>
+  <si>
+    <t>TLG303430</t>
+  </si>
+  <si>
+    <t>XPK3172-A</t>
+  </si>
+  <si>
+    <t>TTS3Z35X1</t>
+  </si>
+  <si>
+    <t>TRR502401</t>
+  </si>
+  <si>
+    <t>TLK6004Z1</t>
+  </si>
+  <si>
+    <t>TLK7304X1</t>
+  </si>
+  <si>
+    <t>TRR804020</t>
+  </si>
+  <si>
+    <t>IFPBMUBE1</t>
+  </si>
+  <si>
+    <t>RJRI1/410</t>
+  </si>
+  <si>
+    <t>LRAM161/8</t>
+  </si>
+  <si>
+    <t>LRAM281/2</t>
+  </si>
+  <si>
+    <t>WVCRE1/48</t>
+  </si>
+  <si>
+    <t>WVCRR1/84</t>
+  </si>
+  <si>
+    <t>TGRRW353L</t>
+  </si>
+  <si>
+    <t>TGRW153D6</t>
+  </si>
+  <si>
+    <t>TGRW253D6</t>
+  </si>
   <si>
     <t>XPP0024L-A</t>
-  </si>
-  <si>
-    <t>NT20</t>
-  </si>
-  <si>
-    <t>HW3/8</t>
-  </si>
-  <si>
-    <t>WTR18</t>
-  </si>
-  <si>
-    <t>NRS24</t>
-  </si>
-  <si>
-    <t>BSPM1</t>
-  </si>
-  <si>
-    <t>HKWT1</t>
-  </si>
-  <si>
-    <t>LD1/4S</t>
-  </si>
-  <si>
-    <t>HKT1/2</t>
-  </si>
-  <si>
-    <t>HFD336</t>
-  </si>
-  <si>
-    <t>EZM63S</t>
-  </si>
-  <si>
-    <t>LESMX8</t>
-  </si>
-  <si>
-    <t>HDSX22</t>
-  </si>
-  <si>
-    <t>EVTX6R</t>
-  </si>
-  <si>
-    <t>NFB1089</t>
-  </si>
-  <si>
-    <t>RJD2525</t>
-  </si>
-  <si>
-    <t>RJK3845</t>
-  </si>
-  <si>
-    <t>TGR453B</t>
-  </si>
-  <si>
-    <t>TGR553B</t>
-  </si>
-  <si>
-    <t>WVPAS32</t>
-  </si>
-  <si>
-    <t>LESMX15</t>
-  </si>
-  <si>
-    <t>LESMX19</t>
-  </si>
-  <si>
-    <t>ESMX21T</t>
-  </si>
-  <si>
-    <t>WDBASM30</t>
-  </si>
-  <si>
-    <t>WDBASM16</t>
-  </si>
-  <si>
-    <t>WDBASM36</t>
-  </si>
-  <si>
-    <t>EPLC8DIS</t>
-  </si>
-  <si>
-    <t>EPLC8DOS</t>
-  </si>
-  <si>
-    <t>ERLK3C4S</t>
-  </si>
-  <si>
-    <t>ELBPLEDS</t>
-  </si>
-  <si>
-    <t>ELBX2LED</t>
-  </si>
-  <si>
-    <t>XPP0347-A</t>
-  </si>
-  <si>
-    <t>XPP0289-A</t>
-  </si>
-  <si>
-    <t>XPK1566-A</t>
-  </si>
-  <si>
-    <t>XPM1041-A</t>
-  </si>
-  <si>
-    <t>XPM1039-A</t>
-  </si>
-  <si>
-    <t>XPK2683-A</t>
-  </si>
-  <si>
-    <t>XPK2125-A</t>
-  </si>
-  <si>
-    <t>XPK2437-A</t>
-  </si>
-  <si>
-    <t>XPK2438-A</t>
-  </si>
-  <si>
-    <t>XPB3249-A</t>
-  </si>
-  <si>
-    <t>TTL3500X1</t>
-  </si>
-  <si>
-    <t>LSNR27V10</t>
-  </si>
-  <si>
-    <t>XPM1102L-A</t>
-  </si>
-  <si>
-    <t>TTL31000X1</t>
-  </si>
-  <si>
-    <t>TTL51000X3</t>
-  </si>
-  <si>
-    <t>EBSM8CM12C</t>
-  </si>
-  <si>
-    <t>LVE32VTSA02</t>
-  </si>
-  <si>
-    <t>LVE52VTSA02</t>
-  </si>
-  <si>
-    <t>LFDRO1/2F1C</t>
-  </si>
-  <si>
-    <t>LFDRO1/2F5C</t>
-  </si>
-  <si>
-    <t>ERLS2P24DCS</t>
-  </si>
-  <si>
-    <t>LFDRO1/2F0.01C</t>
-  </si>
-  <si>
-    <t>EM57.1HSKA63AC7</t>
-  </si>
-  <si>
-    <t>BHHHSKA63D20L90</t>
-  </si>
-  <si>
-    <t>BSHHSKA63D27L100</t>
-  </si>
-  <si>
-    <t>R220.97-0063-V22.4A</t>
-  </si>
-  <si>
-    <t>VPGX220605ER-E10-H25</t>
-  </si>
-  <si>
-    <t>522200R050Z2.0-MEGA-64</t>
-  </si>
-  <si>
-    <t>JS453200E2R050.0Z3-HEMI</t>
-  </si>
-  <si>
-    <t>71902E</t>
-  </si>
-  <si>
-    <t>XPB1661-A</t>
-  </si>
-  <si>
-    <t>XPK1906-A</t>
-  </si>
-  <si>
-    <t>XPM1321-A</t>
-  </si>
-  <si>
-    <t>TB30</t>
-  </si>
-  <si>
-    <t>WTR3</t>
-  </si>
-  <si>
-    <t>TB25</t>
-  </si>
-  <si>
-    <t>RN1/8</t>
-  </si>
-  <si>
-    <t>RT1/4</t>
-  </si>
-  <si>
-    <t>NCU10</t>
-  </si>
-  <si>
-    <t>WTR21</t>
-  </si>
-  <si>
-    <t>WTR28</t>
-  </si>
-  <si>
-    <t>WTR35</t>
-  </si>
-  <si>
-    <t>WTR36</t>
-  </si>
-  <si>
-    <t>WTR39</t>
-  </si>
-  <si>
-    <t>LKT44</t>
-  </si>
-  <si>
-    <t>WTR68</t>
-  </si>
-  <si>
-    <t>IFP70</t>
-  </si>
-  <si>
-    <t>TMP71</t>
-  </si>
-  <si>
-    <t>IFPC1</t>
-  </si>
-  <si>
-    <t>IFPC3</t>
-  </si>
-  <si>
-    <t>IFPC4</t>
-  </si>
-  <si>
-    <t>IFPC5</t>
-  </si>
-  <si>
-    <t>IFPC6</t>
-  </si>
-  <si>
-    <t>IFPC7</t>
-  </si>
-  <si>
-    <t>IFPC8</t>
-  </si>
-  <si>
-    <t>IFPC9</t>
-  </si>
-  <si>
-    <t>WVCL3</t>
-  </si>
-  <si>
-    <t>WVCL8</t>
-  </si>
-  <si>
-    <t>NM40X1</t>
-  </si>
-  <si>
-    <t>NM50X1</t>
-  </si>
-  <si>
-    <t>LW21/2</t>
-  </si>
-  <si>
-    <t>NSC1/2</t>
-  </si>
-  <si>
-    <t>NSC1/4</t>
-  </si>
-  <si>
-    <t>NSC1/8</t>
-  </si>
-  <si>
-    <t>LRD1/4</t>
-  </si>
-  <si>
-    <t>LRD1/8</t>
-  </si>
-  <si>
-    <t>LRE1/2</t>
-  </si>
-  <si>
-    <t>NSM1/4</t>
-  </si>
-  <si>
-    <t>DDR102</t>
-  </si>
-  <si>
-    <t>TMP252</t>
-  </si>
-  <si>
-    <t>LL13EP</t>
-  </si>
-  <si>
-    <t>IHV428</t>
-  </si>
-  <si>
-    <t>NM25X1</t>
-  </si>
-  <si>
-    <t>NAS550</t>
-  </si>
-  <si>
-    <t>NQB620</t>
-  </si>
-  <si>
-    <t>NHC615</t>
-  </si>
-  <si>
-    <t>NSM690</t>
-  </si>
-  <si>
-    <t>DOR603</t>
-  </si>
-  <si>
-    <t>NFB891</t>
-  </si>
-  <si>
-    <t>NKN840</t>
-  </si>
-  <si>
-    <t>NKN880</t>
-  </si>
-  <si>
-    <t>NTN8X2</t>
-  </si>
-  <si>
-    <t>NSP820</t>
-  </si>
-  <si>
-    <t>NSP830</t>
-  </si>
-  <si>
-    <t>NSP850</t>
-  </si>
-  <si>
-    <t>NSP825</t>
-  </si>
-  <si>
-    <t>NSP835</t>
-  </si>
-  <si>
-    <t>IFPC10</t>
-  </si>
-  <si>
-    <t>IFPC20</t>
-  </si>
-  <si>
-    <t>IFPC30</t>
-  </si>
-  <si>
-    <t>IFPC11</t>
-  </si>
-  <si>
-    <t>IFPC12</t>
-  </si>
-  <si>
-    <t>IFPC32</t>
-  </si>
-  <si>
-    <t>IFPC13</t>
-  </si>
-  <si>
-    <t>IFPC23</t>
-  </si>
-  <si>
-    <t>IFPC33</t>
-  </si>
-  <si>
-    <t>IFPC14</t>
-  </si>
-  <si>
-    <t>IFPC24</t>
-  </si>
-  <si>
-    <t>IFPC34</t>
-  </si>
-  <si>
-    <t>IFPC15</t>
-  </si>
-  <si>
-    <t>IFPC25</t>
-  </si>
-  <si>
-    <t>IFPC35</t>
-  </si>
-  <si>
-    <t>IFPC16</t>
-  </si>
-  <si>
-    <t>IFPC26</t>
-  </si>
-  <si>
-    <t>IFPC36</t>
-  </si>
-  <si>
-    <t>IFPC17</t>
-  </si>
-  <si>
-    <t>IFPC27</t>
-  </si>
-  <si>
-    <t>IFPC18</t>
-  </si>
-  <si>
-    <t>IFPC28</t>
-  </si>
-  <si>
-    <t>IFPC19</t>
-  </si>
-  <si>
-    <t>TLLD12</t>
-  </si>
-  <si>
-    <t>WVCPP2</t>
-  </si>
-  <si>
-    <t>WVCPP7</t>
-  </si>
-  <si>
-    <t>DORR20</t>
-  </si>
-  <si>
-    <t>WVCSR1</t>
-  </si>
-  <si>
-    <t>WVCSR4</t>
-  </si>
-  <si>
-    <t>WVETP6</t>
-  </si>
-  <si>
-    <t>LKWTM3</t>
-  </si>
-  <si>
-    <t>NPLUG6</t>
-  </si>
-  <si>
-    <t>DORV62</t>
-  </si>
-  <si>
-    <t>NM20SKF</t>
-  </si>
-  <si>
-    <t>NPC1040</t>
-  </si>
-  <si>
-    <t>TKL1423</t>
-  </si>
-  <si>
-    <t>TKL1826</t>
-  </si>
-  <si>
-    <t>NSP1070</t>
-  </si>
-  <si>
-    <t>TR720X2</t>
-  </si>
-  <si>
-    <t>VSG2228</t>
-  </si>
-  <si>
-    <t>TVL2428</t>
-  </si>
-  <si>
-    <t>TGR256B</t>
-  </si>
-  <si>
-    <t>VST2087</t>
-  </si>
-  <si>
-    <t>EM.3B51</t>
-  </si>
-  <si>
-    <t>TW63904</t>
-  </si>
-  <si>
-    <t>VSD3448</t>
-  </si>
-  <si>
-    <t>DOK3042</t>
-  </si>
-  <si>
-    <t>TKL3243</t>
-  </si>
-  <si>
-    <t>TGR306B</t>
-  </si>
-  <si>
-    <t>LVB41/8</t>
-  </si>
-  <si>
-    <t>IMG6063</t>
-  </si>
-  <si>
-    <t>DOK6080</t>
-  </si>
-  <si>
-    <t>TLK7210</t>
-  </si>
-  <si>
-    <t>VM18352</t>
-  </si>
-  <si>
-    <t>NKN8603</t>
-  </si>
-  <si>
-    <t>WVPAS35</t>
-  </si>
-  <si>
-    <t>NPCD620</t>
-  </si>
-  <si>
-    <t>NPCD820</t>
-  </si>
-  <si>
-    <t>NPCD830</t>
-  </si>
-  <si>
-    <t>NPCD640</t>
-  </si>
-  <si>
-    <t>NPCD840</t>
-  </si>
-  <si>
-    <t>NPCD850</t>
-  </si>
-  <si>
-    <t>NPCD870</t>
-  </si>
-  <si>
-    <t>NPCD624</t>
-  </si>
-  <si>
-    <t>IFPH120</t>
-  </si>
-  <si>
-    <t>IFPH130</t>
-  </si>
-  <si>
-    <t>IFPH121</t>
-  </si>
-  <si>
-    <t>IFPH131</t>
-  </si>
-  <si>
-    <t>IFPH132</t>
-  </si>
-  <si>
-    <t>IFPH133</t>
-  </si>
-  <si>
-    <t>IFPH124</t>
-  </si>
-  <si>
-    <t>IFPH125</t>
-  </si>
-  <si>
-    <t>IFPH117</t>
-  </si>
-  <si>
-    <t>IFPH127</t>
-  </si>
-  <si>
-    <t>IFPH118</t>
-  </si>
-  <si>
-    <t>IFPH119</t>
-  </si>
-  <si>
-    <t>IFPH129</t>
-  </si>
-  <si>
-    <t>LESMXN4</t>
-  </si>
-  <si>
-    <t>LESMXN8</t>
-  </si>
-  <si>
-    <t>IKSM616</t>
-  </si>
-  <si>
-    <t>WVCRE64</t>
-  </si>
-  <si>
-    <t>WVCRR64</t>
-  </si>
-  <si>
-    <t>DORRA15</t>
-  </si>
-  <si>
-    <t>TLASK10</t>
-  </si>
-  <si>
-    <t>TLASS10</t>
-  </si>
-  <si>
-    <t>TLASK30</t>
-  </si>
-  <si>
-    <t>TLASS30</t>
-  </si>
-  <si>
-    <t>TLASK15</t>
-  </si>
-  <si>
-    <t>WVCSRA1</t>
-  </si>
-  <si>
-    <t>WVCSRA4</t>
-  </si>
-  <si>
-    <t>EKKT200</t>
-  </si>
-  <si>
-    <t>WVCV1X3</t>
-  </si>
-  <si>
-    <t>WVCV1X5</t>
-  </si>
-  <si>
-    <t>WVCV1X6</t>
-  </si>
-  <si>
-    <t>WVCV1X7</t>
-  </si>
-  <si>
-    <t>NFB16170</t>
-  </si>
-  <si>
-    <t>NFB12145</t>
-  </si>
-  <si>
-    <t>LRB1/84P</t>
-  </si>
-  <si>
-    <t>IHK100X1</t>
-  </si>
-  <si>
-    <t>LRK1/84P</t>
-  </si>
-  <si>
-    <t>LRK1/86P</t>
-  </si>
-  <si>
-    <t>ECP1FSCS</t>
-  </si>
-  <si>
-    <t>LRR1/86P</t>
-  </si>
-  <si>
-    <t>IHV105X2</t>
-  </si>
-  <si>
-    <t>TLL3040G</t>
-  </si>
-  <si>
-    <t>WLADDER8</t>
-  </si>
-  <si>
-    <t>WVCD10X1</t>
-  </si>
-  <si>
-    <t>WVCD30X1</t>
-  </si>
-  <si>
-    <t>HSKL1219</t>
-  </si>
-  <si>
-    <t>LRKM54PX</t>
-  </si>
-  <si>
-    <t>WPROFX42</t>
-  </si>
-  <si>
-    <t>WPROFX23</t>
-  </si>
-  <si>
-    <t>WPROFX43</t>
-  </si>
-  <si>
-    <t>WPROFX93</t>
-  </si>
-  <si>
-    <t>WPROFX29</t>
-  </si>
-  <si>
-    <t>WVCRR104</t>
-  </si>
-  <si>
-    <t>WVCRE108</t>
-  </si>
-  <si>
-    <t>WVCRR108</t>
-  </si>
-  <si>
-    <t>TGRRW353</t>
-  </si>
-  <si>
-    <t>WVCTANK3</t>
-  </si>
-  <si>
-    <t>TW506.751</t>
-  </si>
-  <si>
-    <t>XPB0715-A</t>
-  </si>
-  <si>
-    <t>XPB0056-A</t>
-  </si>
-  <si>
-    <t>XPE0282-A</t>
-  </si>
-  <si>
-    <t>XPE0094-A</t>
-  </si>
-  <si>
-    <t>SDK0122-A</t>
-  </si>
-  <si>
-    <t>XPK0042-A</t>
-  </si>
-  <si>
-    <t>XPK0023-A</t>
-  </si>
-  <si>
-    <t>XPK0005-A</t>
-  </si>
-  <si>
-    <t>XPK0668-A</t>
-  </si>
-  <si>
-    <t>XPM0150-A</t>
-  </si>
-  <si>
-    <t>XPM0641-A</t>
-  </si>
-  <si>
-    <t>XPM0061-A</t>
-  </si>
-  <si>
-    <t>XPM0642-A</t>
-  </si>
-  <si>
-    <t>XPM0145-A</t>
-  </si>
-  <si>
-    <t>XPM0116-A</t>
-  </si>
-  <si>
-    <t>XPM0577-A</t>
-  </si>
-  <si>
-    <t>XPM0568-A</t>
-  </si>
-  <si>
-    <t>XPM0629-A</t>
-  </si>
-  <si>
-    <t>XPM0579-A</t>
-  </si>
-  <si>
-    <t>XPP0001-A</t>
-  </si>
-  <si>
-    <t>XPP0002-A</t>
-  </si>
-  <si>
-    <t>XPP0103-A</t>
-  </si>
-  <si>
-    <t>XPP0233-A</t>
-  </si>
-  <si>
-    <t>XPP0005-A</t>
-  </si>
-  <si>
-    <t>XPP0226-A</t>
-  </si>
-  <si>
-    <t>XPP0096-A</t>
-  </si>
-  <si>
-    <t>XPP0217-A</t>
-  </si>
-  <si>
-    <t>XPP0218-A</t>
-  </si>
-  <si>
-    <t>XPP0219-A</t>
-  </si>
-  <si>
-    <t>XPP0329-A</t>
-  </si>
-  <si>
-    <t>XPS0100-A</t>
-  </si>
-  <si>
-    <t>XPS0151-A</t>
-  </si>
-  <si>
-    <t>XPS0103-A</t>
-  </si>
-  <si>
-    <t>XPS0024-A</t>
-  </si>
-  <si>
-    <t>XPS0154-A</t>
-  </si>
-  <si>
-    <t>XPS0068-A</t>
-  </si>
-  <si>
-    <t>XPT0036-A</t>
-  </si>
-  <si>
-    <t>XPT0196-A</t>
-  </si>
-  <si>
-    <t>XPT0148-A</t>
-  </si>
-  <si>
-    <t>LRA1/41/8</t>
-  </si>
-  <si>
-    <t>NFB161001</t>
-  </si>
-  <si>
-    <t>XPB1730-A</t>
-  </si>
-  <si>
-    <t>XPB1870-A</t>
-  </si>
-  <si>
-    <t>XPB1691-A</t>
-  </si>
-  <si>
-    <t>XPB1942-A</t>
-  </si>
-  <si>
-    <t>XPB1692-A</t>
-  </si>
-  <si>
-    <t>XPB1903-A</t>
-  </si>
-  <si>
-    <t>XPB1793-A</t>
-  </si>
-  <si>
-    <t>XPB1926-A</t>
-  </si>
-  <si>
-    <t>XPB1996-A</t>
-  </si>
-  <si>
-    <t>XPB1807-A</t>
-  </si>
-  <si>
-    <t>XPB1929-A</t>
-  </si>
-  <si>
-    <t>XPB1849-A</t>
-  </si>
-  <si>
-    <t>TLG101210</t>
-  </si>
-  <si>
-    <t>XPK1590-A</t>
-  </si>
-  <si>
-    <t>XPK1431-A</t>
-  </si>
-  <si>
-    <t>XPK1622-A</t>
-  </si>
-  <si>
-    <t>XPK1432-A</t>
-  </si>
-  <si>
-    <t>XPK1433-A</t>
-  </si>
-  <si>
-    <t>XPK1653-A</t>
-  </si>
-  <si>
-    <t>XPK1534-A</t>
-  </si>
-  <si>
-    <t>XPK1595-A</t>
-  </si>
-  <si>
-    <t>XPK1436-A</t>
-  </si>
-  <si>
-    <t>XPK1646-A</t>
-  </si>
-  <si>
-    <t>XPK1437-A</t>
-  </si>
-  <si>
-    <t>XPK1647-A</t>
-  </si>
-  <si>
-    <t>XPK1478-A</t>
-  </si>
-  <si>
-    <t>XPK1599-A</t>
-  </si>
-  <si>
-    <t>LRK1/86PX</t>
-  </si>
-  <si>
-    <t>LRR1/84PX</t>
-  </si>
-  <si>
-    <t>LRR1/86PX</t>
-  </si>
-  <si>
-    <t>LRR1/48PX</t>
-  </si>
-  <si>
-    <t>LRR1/88PX</t>
-  </si>
-  <si>
-    <t>XPT1512-A</t>
-  </si>
-  <si>
-    <t>XPT1252-A</t>
-  </si>
-  <si>
-    <t>XPT1023-A</t>
-  </si>
-  <si>
-    <t>XPT1254-A</t>
-  </si>
-  <si>
-    <t>XPT1417-A</t>
-  </si>
-  <si>
-    <t>XPT1428-A</t>
-  </si>
-  <si>
-    <t>XPB2020-A</t>
-  </si>
-  <si>
-    <t>XPB2082-A</t>
-  </si>
-  <si>
-    <t>XPB2014-A</t>
-  </si>
-  <si>
-    <t>XPB2015-A</t>
-  </si>
-  <si>
-    <t>XPB2995-A</t>
-  </si>
-  <si>
-    <t>XPB2016-A</t>
-  </si>
-  <si>
-    <t>XPK2102-A</t>
-  </si>
-  <si>
-    <t>XPK2942-A</t>
-  </si>
-  <si>
-    <t>XPK2107-A</t>
-  </si>
-  <si>
-    <t>XPK2108-A</t>
-  </si>
-  <si>
-    <t>XPK2088-A</t>
-  </si>
-  <si>
-    <t>XPB3290-A</t>
-  </si>
-  <si>
-    <t>XPB3291-A</t>
-  </si>
-  <si>
-    <t>LVE32VS18</t>
-  </si>
-  <si>
-    <t>TLG303430</t>
-  </si>
-  <si>
-    <t>XPK3172-A</t>
-  </si>
-  <si>
-    <t>TTS3Z35X1</t>
-  </si>
-  <si>
-    <t>TRR502401</t>
-  </si>
-  <si>
-    <t>TLK6004Z1</t>
-  </si>
-  <si>
-    <t>TLK7304X1</t>
-  </si>
-  <si>
-    <t>TRR804020</t>
-  </si>
-  <si>
-    <t>IFPBMUBE1</t>
-  </si>
-  <si>
-    <t>RJRI1/410</t>
-  </si>
-  <si>
-    <t>LRAM161/8</t>
-  </si>
-  <si>
-    <t>LRAM281/2</t>
-  </si>
-  <si>
-    <t>WVCRE1/48</t>
-  </si>
-  <si>
-    <t>WVCRR1/84</t>
-  </si>
-  <si>
-    <t>TGRRW353L</t>
-  </si>
-  <si>
-    <t>TGRW153D6</t>
-  </si>
-  <si>
-    <t>TGRW253D6</t>
   </si>
   <si>
     <t>XPB1812A-A</t>
@@ -1494,7 +1497,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="16" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1515,27 +1518,7 @@
     <cellStyle name="Normalny 4 2" xfId="13"/>
     <cellStyle name="Normalny 5" xfId="14"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1846,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A474"/>
+  <dimension ref="A4:A479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,164 +1840,149 @@
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
+      <c r="A4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -2024,1962 +1992,1960 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>378</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>307</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>309</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>308</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>342</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>278</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>215</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>311</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>310</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>197</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>258</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>232</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>229</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>228</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>318</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>334</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>329</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>330</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>294</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>296</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>299</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>252</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>327</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>280</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>322</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>231</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>254</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>230</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>236</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>325</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>222</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>275</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>312</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>259</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>313</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>291</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>361</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>262</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>260</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>266</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>263</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>261</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>238</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>207</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>357</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>367</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>368</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>369</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>370</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>366</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>247</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>321</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>358</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>350</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>355</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>281</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>293</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>303</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>349</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>348</v>
+        <v>138</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>302</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>356</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>359</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>320</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>276</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>241</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>304</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>360</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>300</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>277</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>253</v>
+        <v>151</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>305</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>269</v>
+        <v>153</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>271</v>
+        <v>155</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>379</v>
+        <v>156</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>257</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>255</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>264</v>
+        <v>159</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>386</v>
+        <v>160</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>274</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>328</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>273</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>390</v>
+        <v>164</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>272</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>251</v>
+        <v>166</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>306</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>384</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>385</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>283</v>
+        <v>171</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>298</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>372</v>
+        <v>176</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>374</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>377</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>375</v>
+        <v>179</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>371</v>
+        <v>180</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>373</v>
+        <v>181</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>376</v>
+        <v>182</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>290</v>
+        <v>184</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>290</v>
+        <v>185</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>297</v>
+        <v>186</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>332</v>
+        <v>192</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>338</v>
+        <v>193</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>336</v>
+        <v>194</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>292</v>
+        <v>195</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>337</v>
+        <v>200</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>65</v>
+        <v>206</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>344</v>
+        <v>208</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>343</v>
+        <v>209</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>69</v>
+        <v>220</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>94</v>
+        <v>222</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>103</v>
+        <v>230</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>114</v>
+        <v>233</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>68</v>
+        <v>241</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>145</v>
+        <v>242</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>97</v>
+        <v>245</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>362</v>
+        <v>246</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>363</v>
+        <v>247</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>91</v>
+        <v>248</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>71</v>
+        <v>249</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>117</v>
+        <v>250</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>110</v>
+        <v>253</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>104</v>
+        <v>254</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>105</v>
+        <v>255</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>93</v>
+        <v>257</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>173</v>
+        <v>271</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>346</v>
+        <v>273</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>78</v>
+        <v>277</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>99</v>
+        <v>278</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>142</v>
+        <v>281</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>212</v>
+        <v>287</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>365</v>
+        <v>288</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>102</v>
+        <v>292</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>216</v>
+        <v>293</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>161</v>
+        <v>295</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>162</v>
+        <v>296</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>107</v>
+        <v>299</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>88</v>
+        <v>300</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>237</v>
+        <v>302</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>147</v>
+        <v>303</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>195</v>
+        <v>304</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>196</v>
+        <v>305</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>77</v>
+        <v>308</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>188</v>
+        <v>309</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>189</v>
+        <v>310</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>191</v>
+        <v>311</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>194</v>
+        <v>312</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>183</v>
+        <v>313</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>185</v>
+        <v>314</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>186</v>
+        <v>315</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>187</v>
+        <v>316</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>120</v>
+        <v>318</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>123</v>
+        <v>319</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>126</v>
+        <v>320</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>129</v>
+        <v>321</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>132</v>
+        <v>322</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>135</v>
+        <v>323</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>190</v>
+        <v>324</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>192</v>
+        <v>325</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>193</v>
+        <v>326</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>182</v>
+        <v>327</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>184</v>
+        <v>328</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>79</v>
+        <v>329</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>118</v>
+        <v>330</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>121</v>
+        <v>331</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>122</v>
+        <v>332</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>124</v>
+        <v>333</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>127</v>
+        <v>334</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>130</v>
+        <v>335</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>133</v>
+        <v>336</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>119</v>
+        <v>337</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>80</v>
+        <v>338</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>81</v>
+        <v>339</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>82</v>
+        <v>340</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>83</v>
+        <v>341</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>84</v>
+        <v>342</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>85</v>
+        <v>343</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>86</v>
+        <v>344</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>136</v>
+        <v>345</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>138</v>
+        <v>346</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>140</v>
+        <v>347</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>125</v>
+        <v>348</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>128</v>
+        <v>349</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>134</v>
+        <v>351</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>137</v>
+        <v>352</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>139</v>
+        <v>353</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>44</v>
+        <v>354</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>61</v>
+        <v>359</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>382</v>
+        <v>44</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>178</v>
+        <v>366</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>171</v>
+        <v>367</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>115</v>
+        <v>368</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>268</v>
+        <v>369</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>144</v>
+        <v>371</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>75</v>
+        <v>373</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>315</v>
+        <v>374</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>316</v>
+        <v>375</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>141</v>
+        <v>377</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>157</v>
+        <v>378</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>204</v>
+        <v>379</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>314</v>
+        <v>380</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>112</v>
+        <v>381</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>152</v>
+        <v>382</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>106</v>
+        <v>383</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>203</v>
+        <v>384</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>174</v>
+        <v>385</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>205</v>
+        <v>386</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>428</v>
+        <v>105</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>413</v>
+        <v>10</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>176</v>
+        <v>402</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>341</v>
+        <v>403</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>312</v>
+        <v>404</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>427</v>
+        <v>159</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>430</v>
+        <v>166</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>199</v>
+        <v>409</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
@@ -3989,250 +3955,271 @@
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>424</v>
+        <v>176</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>435</v>
+        <v>199</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>413</v>
+        <v>201</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>400</v>
+        <v>202</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>421</v>
+        <v>26</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>423</v>
+        <v>27</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>420</v>
+        <v>28</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>409</v>
+        <v>29</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>201</v>
+        <v>415</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>202</v>
+        <v>416</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>396</v>
+        <v>30</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>406</v>
+        <v>312</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>347</v>
+        <v>431</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>365</v>
+        <v>432</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>26</v>
+        <v>433</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>27</v>
+        <v>341</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>28</v>
+        <v>434</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>10</v>
+        <v>435</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>51</v>
+        <v>436</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>46</v>
+        <v>436</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>29</v>
+        <v>347</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>105</v>
+        <v>437</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>431</v>
+        <v>46</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>159</v>
+        <v>365</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>30</v>
+        <v>439</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>166</v>
+        <v>51</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
         <v>441</v>
       </c>
     </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A476:A1048576 A1:A438">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A445 A476:A1048576">
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
